--- a/data/trans_orig/P36B03-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B03-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9363</v>
+        <v>10251</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003900730352097938</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0197626853682452</v>
+        <v>0.02163686422640849</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>2891</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8313</v>
+        <v>8514</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009426717011517746</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002915788527293326</v>
+        <v>0.00293377079814898</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02710726004566899</v>
+        <v>0.02776212779620144</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>4739</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1795</v>
+        <v>1007</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12175</v>
+        <v>11451</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006072165933046544</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002300171079178067</v>
+        <v>0.001290321038750804</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01560043718003973</v>
+        <v>0.01467261718023995</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>3738</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1691</v>
+        <v>871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9328</v>
+        <v>8445</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007890569901441156</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003568610077550848</v>
+        <v>0.001838902697442282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0196884980924515</v>
+        <v>0.01782590766754965</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -836,19 +836,19 @@
         <v>2906</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6875</v>
+        <v>7789</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009474813685356225</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003062391183267386</v>
+        <v>0.003045486788217739</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02241612595688591</v>
+        <v>0.02539803481742982</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -857,19 +857,19 @@
         <v>6644</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2874</v>
+        <v>2853</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13704</v>
+        <v>13550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008513098244940818</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003682696681740924</v>
+        <v>0.003655866430863172</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01755903671646329</v>
+        <v>0.01736218203425497</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>16165</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9216</v>
+        <v>9765</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27426</v>
+        <v>27708</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03411967905397109</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0194521085651263</v>
+        <v>0.0206117305537878</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05788712464645298</v>
+        <v>0.05848426104507918</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>11556</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6217</v>
+        <v>6453</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19179</v>
+        <v>20477</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03768196104254876</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0202733910708024</v>
+        <v>0.02104256582524421</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0625366450088206</v>
+        <v>0.06676848502369712</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -928,19 +928,19 @@
         <v>27721</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18535</v>
+        <v>18996</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40524</v>
+        <v>40682</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03551947719611537</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02374831820231262</v>
+        <v>0.02433937810559554</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0519233201422235</v>
+        <v>0.05212568669031436</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>30908</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21598</v>
+        <v>21152</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44053</v>
+        <v>42770</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06523756515917653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04558726593445659</v>
+        <v>0.04464467715955026</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09298182725140951</v>
+        <v>0.09027453504199878</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -978,19 +978,19 @@
         <v>24784</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16710</v>
+        <v>16724</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35181</v>
+        <v>35093</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08081480136684419</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05448565481168319</v>
+        <v>0.05453221851025324</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1147154742210543</v>
+        <v>0.1144303077250874</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -999,19 +999,19 @@
         <v>55692</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42832</v>
+        <v>43297</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70070</v>
+        <v>71480</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0713586376551644</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05488019807067086</v>
+        <v>0.05547689425414149</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08978114280401087</v>
+        <v>0.09158680730575193</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>421116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>406692</v>
+        <v>405314</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>434188</v>
+        <v>434452</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8888514555333132</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8584064509540834</v>
+        <v>0.855496679462071</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9164410336301495</v>
+        <v>0.9169981325373724</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>256</v>
@@ -1049,19 +1049,19 @@
         <v>264543</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>251090</v>
+        <v>250896</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>274763</v>
+        <v>274472</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8626017068937331</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8187358269819769</v>
+        <v>0.8181025069334484</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8959269605121438</v>
+        <v>0.8949775274886698</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>661</v>
@@ -1070,19 +1070,19 @@
         <v>685660</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>667445</v>
+        <v>664902</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>703890</v>
+        <v>703217</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8785366209707328</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8551971987729021</v>
+        <v>0.8519395540101415</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9018945890888441</v>
+        <v>0.9010318068535843</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>2832</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8222</v>
+        <v>8640</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007716904189979698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002293426944242108</v>
+        <v>0.002304138273498439</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02240808935678394</v>
+        <v>0.02354688513965536</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1195,19 +1195,19 @@
         <v>5865</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2075</v>
+        <v>1973</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13743</v>
+        <v>12755</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01577206858295047</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005579097566992875</v>
+        <v>0.005306593552770739</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03695707359671607</v>
+        <v>0.03429976821248662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1216,19 +1216,19 @@
         <v>8697</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3935</v>
+        <v>4086</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16424</v>
+        <v>17408</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01177136636702699</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005326635537226067</v>
+        <v>0.005530317865871302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02223055255246632</v>
+        <v>0.02356260179113871</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>6653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2687</v>
+        <v>2662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13916</v>
+        <v>14509</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0181300603830166</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00732254990754152</v>
+        <v>0.007255250848051792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03792591577588188</v>
+        <v>0.03953993235081004</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1266,19 +1266,19 @@
         <v>8919</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3976</v>
+        <v>4345</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16308</v>
+        <v>16494</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02398584502756168</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01069303721460161</v>
+        <v>0.01168514808443573</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04385552586542556</v>
+        <v>0.04435355327043878</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1287,19 +1287,19 @@
         <v>15572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9221</v>
+        <v>9024</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25891</v>
+        <v>25086</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0210774933837584</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01248094981241689</v>
+        <v>0.01221379357788511</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03504407435382575</v>
+        <v>0.03395477683284893</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>14903</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8503</v>
+        <v>8372</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23896</v>
+        <v>24684</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04061527636823224</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02317372225459538</v>
+        <v>0.02281490816412707</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06512296625555339</v>
+        <v>0.06727184357043656</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -1337,19 +1337,19 @@
         <v>17145</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10654</v>
+        <v>10996</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27667</v>
+        <v>26247</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04610436454090673</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02864993512616062</v>
+        <v>0.02956853793865044</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07440172691818575</v>
+        <v>0.07058097852187474</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -1358,19 +1358,19 @@
         <v>32048</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>22191</v>
+        <v>22181</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>46055</v>
+        <v>45339</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04337813747160179</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0300360163871836</v>
+        <v>0.0300237200333466</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06233787811208646</v>
+        <v>0.06136839319612684</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>24970</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16697</v>
+        <v>17196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35877</v>
+        <v>37059</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06804935863930078</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0455048056032865</v>
+        <v>0.04686460034549994</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09777570416051054</v>
+        <v>0.1009960289432844</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -1408,19 +1408,19 @@
         <v>35552</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25829</v>
+        <v>26276</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49139</v>
+        <v>48455</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09560368811744062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0694592755627049</v>
+        <v>0.07065874674641376</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1321410969710416</v>
+        <v>0.1303036392384896</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -1429,19 +1429,19 @@
         <v>60521</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47397</v>
+        <v>46102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77392</v>
+        <v>76893</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08191847182344714</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06415378638255674</v>
+        <v>0.06240138669110485</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1047543525652054</v>
+        <v>0.1040777231579939</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>317577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>303955</v>
+        <v>300553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>329910</v>
+        <v>328777</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8654884004194707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8283644978621411</v>
+        <v>0.8190937241647974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8990983768126251</v>
+        <v>0.8960125395550375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>297</v>
@@ -1479,19 +1479,19 @@
         <v>304384</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>284938</v>
+        <v>288898</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>317586</v>
+        <v>316877</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8185340337311405</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7662406150018424</v>
+        <v>0.7768886957674859</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.854035253080626</v>
+        <v>0.8521285510851542</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>598</v>
@@ -1500,19 +1500,19 @@
         <v>621961</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>599458</v>
+        <v>597548</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>640428</v>
+        <v>639149</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8418545309541657</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.81139558930929</v>
+        <v>0.8088095200041897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8668503167167476</v>
+        <v>0.8651192514271258</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>5799</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2142</v>
+        <v>1513</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13643</v>
+        <v>12881</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01069190949615684</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003949511161276176</v>
+        <v>0.002789531635724748</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02515300468418435</v>
+        <v>0.02374791638671852</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6968</v>
+        <v>6935</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01360814021119894</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04153011294198006</v>
+        <v>0.04133230471414747</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1646,19 +1646,19 @@
         <v>8082</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3586</v>
+        <v>3710</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16019</v>
+        <v>16640</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01138088546260361</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005049005121220498</v>
+        <v>0.005223524182241104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02255653098419686</v>
+        <v>0.02343081521903655</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>3765</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1062</v>
+        <v>1097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9341</v>
+        <v>9960</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006940632363068601</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001957436501214297</v>
+        <v>0.002022980796589064</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01722229219101961</v>
+        <v>0.0183634711909409</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1696,19 +1696,19 @@
         <v>5982</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2098</v>
+        <v>2874</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13665</v>
+        <v>12033</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03565064943392725</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01250197599264623</v>
+        <v>0.01713025797709486</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08144766202200313</v>
+        <v>0.07171946359111968</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1717,19 +1717,19 @@
         <v>9746</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5221</v>
+        <v>5040</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17904</v>
+        <v>17235</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01372353594338859</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007351768658123041</v>
+        <v>0.007096191976602328</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02521042612517875</v>
+        <v>0.0242684107788649</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>16583</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9542</v>
+        <v>9519</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25805</v>
+        <v>26441</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03057355742139188</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01759251161274654</v>
+        <v>0.01755028299602045</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04757605615866669</v>
+        <v>0.04874947089844836</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -1767,19 +1767,19 @@
         <v>8907</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4273</v>
+        <v>4552</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16194</v>
+        <v>15887</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05308743658001534</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0254702816944107</v>
+        <v>0.02713024705703799</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09652035424799676</v>
+        <v>0.09468606773859793</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -1788,19 +1788,19 @@
         <v>25490</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>15960</v>
+        <v>16747</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>36452</v>
+        <v>37740</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03589258844721883</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02247325828468769</v>
+        <v>0.02358196487851318</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05132843941622443</v>
+        <v>0.05314184076806821</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>37461</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25371</v>
+        <v>26699</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49968</v>
+        <v>50797</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06906647098049459</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04677556877732394</v>
+        <v>0.04922522845814958</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09212653495957825</v>
+        <v>0.09365445790216541</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1838,19 +1838,19 @@
         <v>8635</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3877</v>
+        <v>3901</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16699</v>
+        <v>16475</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05146531064234617</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02310795764326483</v>
+        <v>0.02325288640905206</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0995250304443094</v>
+        <v>0.09819348926298517</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -1859,19 +1859,19 @@
         <v>46096</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34177</v>
+        <v>34265</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60969</v>
+        <v>60675</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06490809750475766</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04812482099083275</v>
+        <v>0.04824893873020143</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08585153139688582</v>
+        <v>0.08543783042397109</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>478782</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>462923</v>
+        <v>462225</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>493702</v>
+        <v>493266</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8827274297388881</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8534881700220965</v>
+        <v>0.8522017040558166</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9102367012123361</v>
+        <v>0.909432389550545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>139</v>
@@ -1909,19 +1909,19 @@
         <v>141975</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>131792</v>
+        <v>131827</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>150396</v>
+        <v>149531</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8461884631325123</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7854938640467888</v>
+        <v>0.7857055090912519</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8963755157375597</v>
+        <v>0.8912231960866062</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>608</v>
@@ -1930,19 +1930,19 @@
         <v>620757</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>601050</v>
+        <v>602322</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>636751</v>
+        <v>637838</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8740948926420313</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8463458946806713</v>
+        <v>0.8481372476207947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8966163734734812</v>
+        <v>0.8981477157796115</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>5626</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1965</v>
+        <v>1919</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12069</v>
+        <v>11219</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004543121546713055</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001586508677716647</v>
+        <v>0.001549507076908637</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009746155178054433</v>
+        <v>0.009059386750816219</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2055,19 +2055,19 @@
         <v>7163</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3075</v>
+        <v>3058</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15049</v>
+        <v>14801</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01002865922370177</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004305184512561197</v>
+        <v>0.004280945560367801</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02106916848239484</v>
+        <v>0.020721823345039</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2076,19 +2076,19 @@
         <v>12789</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6961</v>
+        <v>6893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20480</v>
+        <v>21120</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006549779079365889</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003564823848853186</v>
+        <v>0.00353016573816839</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01048872415089378</v>
+        <v>0.01081641018240592</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>4703</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1776</v>
+        <v>1672</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10309</v>
+        <v>9474</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003797721789991707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001434533374094637</v>
+        <v>0.001349966809225329</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.008325037381287131</v>
+        <v>0.007650871017227639</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2126,19 +2126,19 @@
         <v>4502</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10371</v>
+        <v>11509</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006302288978891003</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001762490145452018</v>
+        <v>0.001756334835560455</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01451894431486863</v>
+        <v>0.01611283078395267</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -2147,19 +2147,19 @@
         <v>9204</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4376</v>
+        <v>4130</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18073</v>
+        <v>16508</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004713914315060429</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002240953049253624</v>
+        <v>0.002114988615818973</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.00925575056735279</v>
+        <v>0.008454363832601819</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>24417</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16008</v>
+        <v>15323</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36510</v>
+        <v>36006</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01971744578461992</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01292737426204399</v>
+        <v>0.01237394534024719</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02948339894023132</v>
+        <v>0.02907649618933515</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -2197,19 +2197,19 @@
         <v>32068</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22631</v>
+        <v>22615</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>43969</v>
+        <v>43960</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04489490782119533</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03168350500562516</v>
+        <v>0.03166157789575559</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06155718645787531</v>
+        <v>0.06154453762142107</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>55</v>
@@ -2218,19 +2218,19 @@
         <v>56485</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>42180</v>
+        <v>42579</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>72851</v>
+        <v>72012</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02892758102089982</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02160156161383512</v>
+        <v>0.02180622336669027</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03730922568182782</v>
+        <v>0.03687968926565591</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>63703</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49298</v>
+        <v>49554</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81347</v>
+        <v>80877</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05144246385195502</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03981014522134307</v>
+        <v>0.04001697861490244</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06569090783347772</v>
+        <v>0.06531098166311039</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -2268,19 +2268,19 @@
         <v>59601</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45316</v>
+        <v>45861</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76148</v>
+        <v>75560</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08344196426296449</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06344288711688509</v>
+        <v>0.06420484652216077</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1066068076157514</v>
+        <v>0.1057842410985499</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>123</v>
@@ -2289,19 +2289,19 @@
         <v>123304</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>103750</v>
+        <v>102771</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>146156</v>
+        <v>146248</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06314816023432474</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05313378932618164</v>
+        <v>0.05263215755835557</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07485102889339787</v>
+        <v>0.07489821585708077</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>1139886</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1119246</v>
+        <v>1118316</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1158291</v>
+        <v>1156889</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9204992470267203</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9038324638897269</v>
+        <v>0.9030811208046444</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.93536232881782</v>
+        <v>0.934230430107659</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>594</v>
@@ -2339,19 +2339,19 @@
         <v>610951</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>591063</v>
+        <v>589631</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>628645</v>
+        <v>628594</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8553321797132474</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.827488652427311</v>
+        <v>0.8254837719137251</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8801040997376274</v>
+        <v>0.880032481328957</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1718</v>
@@ -2360,19 +2360,19 @@
         <v>1750837</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1723638</v>
+        <v>1721609</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1775787</v>
+        <v>1776531</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8966605653503491</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8827306638464095</v>
+        <v>0.8816917980723777</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9094383275410088</v>
+        <v>0.9098191069611928</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>3496</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10060</v>
+        <v>10606</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009973008235140841</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002643055496933416</v>
+        <v>0.002621699127326042</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02869678688951937</v>
+        <v>0.03025543226021826</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2485,19 +2485,19 @@
         <v>6988</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2359</v>
+        <v>2649</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14731</v>
+        <v>14855</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01230900341725992</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004154972440535122</v>
+        <v>0.004666304182236971</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02594954127080706</v>
+        <v>0.02616687218069368</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -2506,19 +2506,19 @@
         <v>10484</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5227</v>
+        <v>5181</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20976</v>
+        <v>19684</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01141720059987171</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005691914672263663</v>
+        <v>0.005642444276493384</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02284300457719416</v>
+        <v>0.02143665136781363</v>
       </c>
     </row>
     <row r="29">
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6063</v>
+        <v>6186</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005063694553600433</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01729555431649187</v>
+        <v>0.01764548751295044</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2556,19 +2556,19 @@
         <v>10158</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4217</v>
+        <v>4521</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19325</v>
+        <v>19342</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0178932130685448</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007427692394182255</v>
+        <v>0.007962961719699022</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03404214269290062</v>
+        <v>0.03407168619525801</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -2577,19 +2577,19 @@
         <v>11933</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5832</v>
+        <v>5572</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22795</v>
+        <v>21608</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01299534305368347</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00635109660755442</v>
+        <v>0.006068542516448003</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02482499032196148</v>
+        <v>0.02353155279880795</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>5560</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13721</v>
+        <v>12822</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01586046145058814</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.005266244256066341</v>
+        <v>0.005263305509670952</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03914146488045563</v>
+        <v>0.03657526385627998</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2627,19 +2627,19 @@
         <v>10092</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4855</v>
+        <v>4970</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18161</v>
+        <v>18322</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0177780151133572</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.008551983178485521</v>
+        <v>0.008755517573404772</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03199051288565688</v>
+        <v>0.0322740143482737</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>15</v>
@@ -2648,19 +2648,19 @@
         <v>15652</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8671</v>
+        <v>8924</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>25430</v>
+        <v>25663</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01704595891219704</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009442838847276277</v>
+        <v>0.009718264293878646</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02769368526174425</v>
+        <v>0.02794824285581795</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>21486</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13824</v>
+        <v>14046</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>32480</v>
+        <v>32613</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06129021413044054</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03943411454877822</v>
+        <v>0.04006878613277326</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09265191280680223</v>
+        <v>0.09303379244653151</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -2698,19 +2698,19 @@
         <v>20732</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12790</v>
+        <v>11924</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>32415</v>
+        <v>30007</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03651966410502447</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0225302163252509</v>
+        <v>0.02100388178421444</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0570990179721864</v>
+        <v>0.0528575895309198</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>41</v>
@@ -2719,19 +2719,19 @@
         <v>42218</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30692</v>
+        <v>30606</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>56482</v>
+        <v>55932</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04597621027858396</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03342429370805974</v>
+        <v>0.03333088350218635</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06151053110094005</v>
+        <v>0.06091210172158151</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>318238</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>306651</v>
+        <v>305671</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>328461</v>
+        <v>328375</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.90781262163023</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.874757791380685</v>
+        <v>0.8719642020533828</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9369734966460799</v>
+        <v>0.9367288799313416</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>494</v>
@@ -2769,19 +2769,19 @@
         <v>519722</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>505479</v>
+        <v>505347</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>534487</v>
+        <v>533292</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9155001042958136</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8904112278810096</v>
+        <v>0.8901772507930423</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9415094548207833</v>
+        <v>0.9394041510807603</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>802</v>
@@ -2790,19 +2790,19 @@
         <v>837960</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>817398</v>
+        <v>818439</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>853827</v>
+        <v>854455</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9125652871556638</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8901727734309427</v>
+        <v>0.8913063353398252</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9298443064023689</v>
+        <v>0.9305288631779677</v>
       </c>
     </row>
     <row r="33">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8439</v>
+        <v>8473</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.008234333296441859</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02830133724040333</v>
+        <v>0.0284135403058521</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -2915,19 +2915,19 @@
         <v>13587</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7767</v>
+        <v>7698</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>22105</v>
+        <v>22743</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01088072876654099</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006219783695779093</v>
+        <v>0.00616428487921947</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01770186181529811</v>
+        <v>0.01821283473091946</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>16</v>
@@ -2936,19 +2936,19 @@
         <v>16043</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>9040</v>
+        <v>9342</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>25069</v>
+        <v>26833</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01037059509182986</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005843437837142791</v>
+        <v>0.00603912122662051</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01620538048890601</v>
+        <v>0.01734574416240042</v>
       </c>
     </row>
     <row r="35">
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4254</v>
+        <v>4814</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.002842333886229515</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01426639593085597</v>
+        <v>0.01614324649833442</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>11</v>
@@ -2986,19 +2986,19 @@
         <v>10413</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4920</v>
+        <v>5559</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>17693</v>
+        <v>18452</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.008338675063767079</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003940205674859067</v>
+        <v>0.004451636553887634</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01416871758706657</v>
+        <v>0.01477618550471288</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -3007,19 +3007,19 @@
         <v>11261</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6105</v>
+        <v>6316</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>18744</v>
+        <v>19082</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.007279170256551588</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003946153898533751</v>
+        <v>0.004082895754658685</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01211663854247437</v>
+        <v>0.01233526940599156</v>
       </c>
     </row>
     <row r="36">
@@ -3036,19 +3036,19 @@
         <v>3773</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>886</v>
+        <v>1023</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9585</v>
+        <v>9559</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01265162575782612</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.002969650531840445</v>
+        <v>0.003428935066837473</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03214241106407448</v>
+        <v>0.03205453040335911</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>49</v>
@@ -3057,19 +3057,19 @@
         <v>48127</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>36286</v>
+        <v>36594</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>62449</v>
+        <v>63690</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03853984848493457</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02905785748242848</v>
+        <v>0.02930447548239688</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05000900756609881</v>
+        <v>0.051002987525689</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>53</v>
@@ -3078,19 +3078,19 @@
         <v>51900</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>39367</v>
+        <v>38798</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>66213</v>
+        <v>68006</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03354949298412755</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02544774743928977</v>
+        <v>0.02508011259043149</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04280192843694033</v>
+        <v>0.04396095193644001</v>
       </c>
     </row>
     <row r="37">
@@ -3107,19 +3107,19 @@
         <v>15985</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9479</v>
+        <v>9815</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>25912</v>
+        <v>25692</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05360457862130744</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03178805389987681</v>
+        <v>0.03291414956239739</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08689543554172494</v>
+        <v>0.086158024468144</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>82</v>
@@ -3128,19 +3128,19 @@
         <v>82689</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>64564</v>
+        <v>66316</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>102085</v>
+        <v>101594</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06621728180251144</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05170216089735865</v>
+        <v>0.05310539178904318</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08174870768782586</v>
+        <v>0.08135616317374005</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>98</v>
@@ -3149,19 +3149,19 @@
         <v>98674</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>82502</v>
+        <v>79961</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>120242</v>
+        <v>118131</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06378598810715634</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05333139238891144</v>
+        <v>0.05168914535894654</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07772781415604825</v>
+        <v>0.07636304602791569</v>
       </c>
     </row>
     <row r="38">
@@ -3178,19 +3178,19 @@
         <v>275140</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>264436</v>
+        <v>265147</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>283145</v>
+        <v>283051</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9226671284381951</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8867709527840839</v>
+        <v>0.8891569752278384</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9495090544208891</v>
+        <v>0.9491954027069297</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1082</v>
@@ -3199,19 +3199,19 @@
         <v>1093943</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1068129</v>
+        <v>1069436</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1116404</v>
+        <v>1115078</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8760234658822459</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8553513785553488</v>
+        <v>0.8563981466825513</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8940096769308354</v>
+        <v>0.8929482092579912</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1365</v>
@@ -3220,19 +3220,19 @@
         <v>1369082</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1344884</v>
+        <v>1343965</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1391099</v>
+        <v>1392232</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8850147535603347</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8693718897881442</v>
+        <v>0.8687781856862828</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8992465944644173</v>
+        <v>0.8999794373616279</v>
       </c>
     </row>
     <row r="39">
@@ -3324,19 +3324,19 @@
         <v>22056</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>13707</v>
+        <v>14284</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>33195</v>
+        <v>34487</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.006744661130623573</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004191625515302513</v>
+        <v>0.004368002397250222</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.010150735856166</v>
+        <v>0.01054597005751956</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>37</v>
@@ -3345,19 +3345,19 @@
         <v>38778</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>27442</v>
+        <v>28176</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>52246</v>
+        <v>53518</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01148267472262725</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.008126140317176516</v>
+        <v>0.008343212634873358</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0154708808521278</v>
+        <v>0.01584755080625681</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>57</v>
@@ -3366,19 +3366,19 @@
         <v>60834</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>46682</v>
+        <v>45509</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>80309</v>
+        <v>78186</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.009151756653609669</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00702268625698195</v>
+        <v>0.006846221463291755</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01208159096509018</v>
+        <v>0.01176211495349018</v>
       </c>
     </row>
     <row r="41">
@@ -3395,19 +3395,19 @@
         <v>21481</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>13774</v>
+        <v>13873</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>32028</v>
+        <v>33102</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.006568721748637128</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004212011505312689</v>
+        <v>0.004242204114523946</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.009793832366805264</v>
+        <v>0.01012232920385126</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>42</v>
@@ -3416,19 +3416,19 @@
         <v>42879</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>31274</v>
+        <v>32603</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>59002</v>
+        <v>61000</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01269719267627314</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.009260568154065967</v>
+        <v>0.009654219371090452</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01747127438730901</v>
+        <v>0.01806315232184478</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>64</v>
@@ -3437,19 +3437,19 @@
         <v>64360</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>50436</v>
+        <v>50437</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>83226</v>
+        <v>80296</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.009682223777749004</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.007587470950823236</v>
+        <v>0.007587577620726134</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01252029872228794</v>
+        <v>0.01207962205434738</v>
       </c>
     </row>
     <row r="42">
@@ -3466,19 +3466,19 @@
         <v>81400</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>62796</v>
+        <v>65101</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>101396</v>
+        <v>103492</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02489166726125371</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01920257427055159</v>
+        <v>0.01990726190202738</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03100601459548077</v>
+        <v>0.03164719781294073</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>128</v>
@@ -3487,19 +3487,19 @@
         <v>127895</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>106248</v>
+        <v>107306</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>151217</v>
+        <v>149156</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03787172583634884</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03146160790208018</v>
+        <v>0.03177479245561481</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04477750582273419</v>
+        <v>0.04416727460597853</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>205</v>
@@ -3508,19 +3508,19 @@
         <v>209296</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>180987</v>
+        <v>183210</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>241067</v>
+        <v>238549</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03148604278962693</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0272272710375933</v>
+        <v>0.02756173314150474</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03626564416100177</v>
+        <v>0.03588680566830839</v>
       </c>
     </row>
     <row r="43">
@@ -3537,19 +3537,19 @@
         <v>194512</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>170571</v>
+        <v>167844</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>226122</v>
+        <v>222086</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05948035372958126</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05215929477624029</v>
+        <v>0.05132534257998905</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06914633683386237</v>
+        <v>0.06791238477203324</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>226</v>
@@ -3558,19 +3558,19 @@
         <v>231994</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>205085</v>
+        <v>202161</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>264586</v>
+        <v>261420</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.06869685383865662</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.06072875403798852</v>
+        <v>0.05986294567553253</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.07834803599139874</v>
+        <v>0.07741037765988604</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>424</v>
@@ -3579,19 +3579,19 @@
         <v>426506</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>387554</v>
+        <v>384605</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>466431</v>
+        <v>465851</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.06416269490893069</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05830287723079119</v>
+        <v>0.05785921922561063</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07016903487304961</v>
+        <v>0.07008168775064659</v>
       </c>
     </row>
     <row r="44">
@@ -3608,19 +3608,19 @@
         <v>2950740</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2913468</v>
+        <v>2917158</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2982092</v>
+        <v>2984619</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9023145961299044</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8909171826208665</v>
+        <v>0.8920453882024263</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9119017931170044</v>
+        <v>0.9126744404490222</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2862</v>
@@ -3629,19 +3629,19 @@
         <v>2935518</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2896315</v>
+        <v>2897772</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2974703</v>
+        <v>2976833</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8692515529260941</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8576429581354459</v>
+        <v>0.8580742069267194</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8808549204432332</v>
+        <v>0.8814855762727172</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5752</v>
@@ -3650,19 +3650,19 @@
         <v>5886258</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5836632</v>
+        <v>5835649</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5942134</v>
+        <v>5936733</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8855172818700837</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8780515546391274</v>
+        <v>0.8779037797650632</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8939231021141943</v>
+        <v>0.8931105958272704</v>
       </c>
     </row>
     <row r="45">
@@ -3996,19 +3996,19 @@
         <v>6798</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1885</v>
+        <v>2061</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18875</v>
+        <v>17385</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0155481372310223</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004310334622094553</v>
+        <v>0.004714552466202651</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04317217464081057</v>
+        <v>0.03976436523690469</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5423</v>
+        <v>5475</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003123799808594179</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0172472184720134</v>
+        <v>0.01741202448613798</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4038,19 +4038,19 @@
         <v>7780</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2504</v>
+        <v>2891</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17714</v>
+        <v>17651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01035049521826083</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003331489926244537</v>
+        <v>0.003846381355731361</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02356570845017632</v>
+        <v>0.02348255560618664</v>
       </c>
     </row>
     <row r="5">
@@ -4080,19 +4080,19 @@
         <v>5459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1795</v>
+        <v>2058</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12056</v>
+        <v>12385</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01736132858123441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005707349434845821</v>
+        <v>0.006545479620748684</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0383392845128547</v>
+        <v>0.0393858550440024</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -4101,19 +4101,19 @@
         <v>5459</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1814</v>
+        <v>2015</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12461</v>
+        <v>12215</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007263000654528664</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002413461760006281</v>
+        <v>0.002681018128195148</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01657783834795863</v>
+        <v>0.01625049025185145</v>
       </c>
     </row>
     <row r="6">
@@ -4130,19 +4130,19 @@
         <v>12575</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6690</v>
+        <v>6832</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20188</v>
+        <v>20910</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02876143720528822</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01530157856229669</v>
+        <v>0.01562618987356054</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04617524818900344</v>
+        <v>0.04782481847659716</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -4151,19 +4151,19 @@
         <v>10424</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4131</v>
+        <v>4741</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19144</v>
+        <v>20614</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03314852835775998</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01313795943862528</v>
+        <v>0.01507737152815743</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06087951687654976</v>
+        <v>0.06555394829918922</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -4172,19 +4172,19 @@
         <v>22999</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14932</v>
+        <v>13577</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35285</v>
+        <v>35024</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03059674870018845</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01986495023835348</v>
+        <v>0.01806211620478614</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04694303865849488</v>
+        <v>0.04659517137454113</v>
       </c>
     </row>
     <row r="7">
@@ -4201,19 +4201,19 @@
         <v>27670</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18929</v>
+        <v>18483</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41927</v>
+        <v>40723</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0632879225517514</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04329461931953524</v>
+        <v>0.04227474769115159</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09589749466573752</v>
+        <v>0.0931422429653683</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -4222,19 +4222,19 @@
         <v>16817</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9863</v>
+        <v>10124</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25674</v>
+        <v>26789</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0534795854323277</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03136605535878189</v>
+        <v>0.03219487986809915</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08164749127667696</v>
+        <v>0.08519105970129176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -4243,19 +4243,19 @@
         <v>44487</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32571</v>
+        <v>32270</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61152</v>
+        <v>59822</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05918466751658018</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04333170274785612</v>
+        <v>0.04293132178759068</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08135495267672727</v>
+        <v>0.07958555685215546</v>
       </c>
     </row>
     <row r="8">
@@ -4272,19 +4272,19 @@
         <v>390168</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>373847</v>
+        <v>375214</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>401692</v>
+        <v>403222</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.892402503011938</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8550718316085507</v>
+        <v>0.8581994791197006</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9187600602244389</v>
+        <v>0.9222599602910049</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>253</v>
@@ -4293,19 +4293,19 @@
         <v>280772</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>268141</v>
+        <v>267285</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>291007</v>
+        <v>290855</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8928867578200838</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8527181099912026</v>
+        <v>0.8499956733512501</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9254374216994208</v>
+        <v>0.9249512708928632</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>615</v>
@@ -4314,19 +4314,19 @@
         <v>670940</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>650776</v>
+        <v>652743</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>688667</v>
+        <v>686741</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8926050879104419</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8657796617572889</v>
+        <v>0.8683961087344177</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9161888395808804</v>
+        <v>0.9136262771496636</v>
       </c>
     </row>
     <row r="9">
@@ -4418,19 +4418,19 @@
         <v>2683</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7199</v>
+        <v>7307</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006422094908490944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002086572004075603</v>
+        <v>0.002106188299595391</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01723276348972307</v>
+        <v>0.01749139002759107</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -4439,19 +4439,19 @@
         <v>3127</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8212</v>
+        <v>8748</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009252455132385227</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002788245285910422</v>
+        <v>0.002807929935931809</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02429446546623309</v>
+        <v>0.02587979856849323</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -4460,19 +4460,19 @@
         <v>5810</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2049</v>
+        <v>2690</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12327</v>
+        <v>12223</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007687932958061495</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002710907630560668</v>
+        <v>0.003558742056863091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0163100882526541</v>
+        <v>0.01617210966874893</v>
       </c>
     </row>
     <row r="11">
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5031</v>
+        <v>5678</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002427357352945519</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01204216246256262</v>
+        <v>0.01359133294998865</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -4510,19 +4510,19 @@
         <v>5896</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13188</v>
+        <v>14457</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01744312258409189</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005980103093669752</v>
+        <v>0.005937652097865016</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03901757820346004</v>
+        <v>0.04277166433281056</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -4531,19 +4531,19 @@
         <v>6910</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2894</v>
+        <v>2840</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14729</v>
+        <v>14951</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009142943168680038</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003829269123441924</v>
+        <v>0.003758069064914035</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01948834351131515</v>
+        <v>0.01978290001955163</v>
       </c>
     </row>
     <row r="12">
@@ -4560,19 +4560,19 @@
         <v>4286</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15570</v>
+        <v>13320</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01025824495451581</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00217404835851057</v>
+        <v>0.002167916388036367</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03726887816136724</v>
+        <v>0.03188284089218983</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -4581,19 +4581,19 @@
         <v>16980</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9994</v>
+        <v>9955</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26247</v>
+        <v>26699</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05023473005214819</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02956589446582053</v>
+        <v>0.02945152973487265</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07765251578318094</v>
+        <v>0.07898863485113523</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -4602,19 +4602,19 @@
         <v>21265</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12930</v>
+        <v>13404</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33957</v>
+        <v>32486</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02813715503015546</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01710755639241439</v>
+        <v>0.01773535353168732</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04493024212685991</v>
+        <v>0.04298304061220655</v>
       </c>
     </row>
     <row r="13">
@@ -4631,19 +4631,19 @@
         <v>13236</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6413</v>
+        <v>6148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24886</v>
+        <v>24737</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0316815985068357</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01535085857510855</v>
+        <v>0.01471728203553605</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05956850765537522</v>
+        <v>0.05921179701767592</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -4652,19 +4652,19 @@
         <v>18943</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11157</v>
+        <v>11325</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29870</v>
+        <v>28569</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05604381693368114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03300786339774284</v>
+        <v>0.03350542806984193</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08836974300155333</v>
+        <v>0.0845216163239948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -4673,19 +4673,19 @@
         <v>32179</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21227</v>
+        <v>21877</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45029</v>
+        <v>47361</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04257725157470528</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02808686846299902</v>
+        <v>0.02894643206133821</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0595794249198108</v>
+        <v>0.06266574123887884</v>
       </c>
     </row>
     <row r="14">
@@ -4702,19 +4702,19 @@
         <v>396549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>383683</v>
+        <v>383751</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>405301</v>
+        <v>405578</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.949210704277212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9184137902595987</v>
+        <v>0.9185768345340195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9701594052314418</v>
+        <v>0.9708225803082858</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>264</v>
@@ -4723,19 +4723,19 @@
         <v>293064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>279608</v>
+        <v>278079</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>305420</v>
+        <v>304110</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8670258752976936</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8272147017743575</v>
+        <v>0.8226910679484113</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9035789392607144</v>
+        <v>0.899705618364631</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>621</v>
@@ -4744,19 +4744,19 @@
         <v>689613</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>672708</v>
+        <v>669880</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>705826</v>
+        <v>703661</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9124547172683978</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8900871198218496</v>
+        <v>0.8863452114285189</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9339065864129207</v>
+        <v>0.931041462354245</v>
       </c>
     </row>
     <row r="15">
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8000</v>
+        <v>7482</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003557416761426801</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01271086526495572</v>
+        <v>0.01188797723904502</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7988</v>
+        <v>8057</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008993283793870703</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03070727702917633</v>
+        <v>0.03097147854805989</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -4890,19 +4890,19 @@
         <v>4579</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1308</v>
+        <v>1247</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10720</v>
+        <v>10763</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005147027388599663</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001469963701739044</v>
+        <v>0.001401696986466928</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01205130926704091</v>
+        <v>0.01209919073364637</v>
       </c>
     </row>
     <row r="17">
@@ -4919,19 +4919,19 @@
         <v>5914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1980</v>
+        <v>1919</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14969</v>
+        <v>12732</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009395777469082317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003145484916439805</v>
+        <v>0.00304861310129077</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02378206123486406</v>
+        <v>0.02022779314590349</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4767</v>
+        <v>4770</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003641596514013266</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01832485363849378</v>
+        <v>0.01833753935205024</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -4961,19 +4961,19 @@
         <v>6861</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15979</v>
+        <v>15529</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.007713082299708185</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003199677665827383</v>
+        <v>0.003194451437245598</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01796272048797333</v>
+        <v>0.01745731466522234</v>
       </c>
     </row>
     <row r="18">
@@ -4990,19 +4990,19 @@
         <v>11418</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5808</v>
+        <v>5781</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19331</v>
+        <v>19415</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01814011303213314</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.009228274176629324</v>
+        <v>0.009185037455553083</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03071242898269747</v>
+        <v>0.03084655229740755</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -5011,19 +5011,19 @@
         <v>7169</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2976</v>
+        <v>3016</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15113</v>
+        <v>13934</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02755767366831261</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01143892644401048</v>
+        <v>0.01159407053960369</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05809694491481439</v>
+        <v>0.05356608352435822</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -5032,19 +5032,19 @@
         <v>18586</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11483</v>
+        <v>11036</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>28408</v>
+        <v>28514</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02089409034246209</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01290921159744927</v>
+        <v>0.01240655576157866</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03193577304846772</v>
+        <v>0.03205427142109681</v>
       </c>
     </row>
     <row r="19">
@@ -5061,19 +5061,19 @@
         <v>20394</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12927</v>
+        <v>12852</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31073</v>
+        <v>31338</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03240205056341523</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02053837145810841</v>
+        <v>0.02041904655038582</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04936727641772654</v>
+        <v>0.04978986179314154</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -5082,19 +5082,19 @@
         <v>17338</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9802</v>
+        <v>10572</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26408</v>
+        <v>28118</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06665029029247935</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03768047158455042</v>
+        <v>0.04063998162869843</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1015173725954206</v>
+        <v>0.108093539883463</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -5103,19 +5103,19 @@
         <v>37732</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27090</v>
+        <v>27522</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51583</v>
+        <v>52446</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04241726350191272</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0304542293213762</v>
+        <v>0.03093973623081971</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05798840993782135</v>
+        <v>0.05895833624810846</v>
       </c>
     </row>
     <row r="20">
@@ -5132,19 +5132,19 @@
         <v>589450</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>575082</v>
+        <v>575250</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>600007</v>
+        <v>600408</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9365046421739425</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9136771097153241</v>
+        <v>0.9139434112982668</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9532765182764655</v>
+        <v>0.95391420941036</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>218</v>
@@ -5153,19 +5153,19 @@
         <v>232336</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>220960</v>
+        <v>219906</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>241915</v>
+        <v>241120</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.893157155731324</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.849423863758252</v>
+        <v>0.8453741388763977</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9299811579307361</v>
+        <v>0.9269233212814775</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>770</v>
@@ -5174,19 +5174,19 @@
         <v>821786</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>804826</v>
+        <v>803308</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>835399</v>
+        <v>835567</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9238285364673173</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9047626453088228</v>
+        <v>0.9030564668401319</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9391313202258017</v>
+        <v>0.9393203411443539</v>
       </c>
     </row>
     <row r="21">
@@ -5278,19 +5278,19 @@
         <v>7002</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2912</v>
+        <v>2995</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13874</v>
+        <v>14495</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006041240665280612</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002512749731841572</v>
+        <v>0.00258381806660458</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01197058998599888</v>
+        <v>0.01250596792032606</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -5299,19 +5299,19 @@
         <v>7797</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3144</v>
+        <v>3636</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16500</v>
+        <v>16779</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01017028687954951</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004100599426899297</v>
+        <v>0.004742514925771615</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02152254248367646</v>
+        <v>0.02188558030586807</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -5320,19 +5320,19 @@
         <v>14799</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8611</v>
+        <v>8222</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24730</v>
+        <v>23707</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007685120171112974</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004471741324001194</v>
+        <v>0.004269838490100995</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0128424944812333</v>
+        <v>0.01231088160247248</v>
       </c>
     </row>
     <row r="23">
@@ -5349,19 +5349,19 @@
         <v>4414</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1045</v>
+        <v>1011</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11223</v>
+        <v>12272</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003808738243826682</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0009014543144061294</v>
+        <v>0.0008726341489601335</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.009683219784476119</v>
+        <v>0.01058851104459756</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -5370,19 +5370,19 @@
         <v>7041</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2756</v>
+        <v>2992</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15026</v>
+        <v>15037</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009183845435676023</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003595198847919582</v>
+        <v>0.003902715697662758</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01959968023006253</v>
+        <v>0.01961314059172178</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -5391,19 +5391,19 @@
         <v>11455</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6122</v>
+        <v>6101</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21221</v>
+        <v>20631</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005948706676196915</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003179380478000395</v>
+        <v>0.003168205743218143</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01102024217790144</v>
+        <v>0.01071348304162844</v>
       </c>
     </row>
     <row r="24">
@@ -5420,19 +5420,19 @@
         <v>22764</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13843</v>
+        <v>13356</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35357</v>
+        <v>34550</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01964056618925443</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01194363355134586</v>
+        <v>0.01152364787651662</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03050619795021053</v>
+        <v>0.02980976637585497</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -5441,19 +5441,19 @@
         <v>20996</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13007</v>
+        <v>13006</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32486</v>
+        <v>32198</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0273870596065037</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01696583793344925</v>
+        <v>0.01696476088563629</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04237347885212358</v>
+        <v>0.04199754077794049</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -5462,19 +5462,19 @@
         <v>43760</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>31513</v>
+        <v>31614</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>60280</v>
+        <v>59597</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02272464447510044</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01636462751090487</v>
+        <v>0.01641713342490106</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03130348216310372</v>
+        <v>0.03094885756900945</v>
       </c>
     </row>
     <row r="25">
@@ -5491,19 +5491,19 @@
         <v>39775</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28961</v>
+        <v>28392</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56368</v>
+        <v>54630</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03431816258810849</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02498748275976329</v>
+        <v>0.02449654133296891</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04863481020585407</v>
+        <v>0.0471350695289167</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -5512,19 +5512,19 @@
         <v>37200</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26832</v>
+        <v>26511</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52156</v>
+        <v>53922</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04852299925237864</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03499915435414255</v>
+        <v>0.03457977548339215</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06803100336070343</v>
+        <v>0.07033429534562363</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -5533,19 +5533,19 @@
         <v>76976</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60222</v>
+        <v>58519</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>97079</v>
+        <v>95502</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0399734734430451</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03127328492099943</v>
+        <v>0.03038879773129174</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05041324181799733</v>
+        <v>0.04959431309740866</v>
       </c>
     </row>
     <row r="26">
@@ -5562,19 +5562,19 @@
         <v>1085054</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1064801</v>
+        <v>1065226</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1100302</v>
+        <v>1102067</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9361912923135298</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9187169275756264</v>
+        <v>0.919083282211709</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9493468259453709</v>
+        <v>0.9508701920682301</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>645</v>
@@ -5583,19 +5583,19 @@
         <v>693622</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>671607</v>
+        <v>673769</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>709061</v>
+        <v>709824</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9047358088258921</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8760198754854205</v>
+        <v>0.8788400866496423</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9248733053809818</v>
+        <v>0.9258684814757793</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1661</v>
@@ -5604,19 +5604,19 @@
         <v>1778677</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1752876</v>
+        <v>1753214</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1800928</v>
+        <v>1801395</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9236680552345445</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9102693934490994</v>
+        <v>0.9104450273901542</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9352228000408195</v>
+        <v>0.9354656246389412</v>
       </c>
     </row>
     <row r="27">
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6338</v>
+        <v>6366</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002475089499884001</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0124413198764508</v>
+        <v>0.0124973330526655</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -5729,19 +5729,19 @@
         <v>10316</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5214</v>
+        <v>5186</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18701</v>
+        <v>17645</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01354700401855565</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006847348841762128</v>
+        <v>0.006809696429725132</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02455762427943829</v>
+        <v>0.02317080810242651</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -5750,19 +5750,19 @@
         <v>11577</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6100</v>
+        <v>6013</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20741</v>
+        <v>20103</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009109110500265468</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004799940482074945</v>
+        <v>0.004731252373115534</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01631926223591575</v>
+        <v>0.01581722957840251</v>
       </c>
     </row>
     <row r="29">
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5000</v>
+        <v>5032</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.001958525623465614</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.009815201829921251</v>
+        <v>0.009876952677265188</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -5800,19 +5800,19 @@
         <v>8909</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4748</v>
+        <v>3867</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17931</v>
+        <v>17800</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0116989890276085</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006235537694814151</v>
+        <v>0.005077966456791064</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02354642998658485</v>
+        <v>0.02337387166228107</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -5821,19 +5821,19 @@
         <v>9907</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5720</v>
+        <v>4791</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20288</v>
+        <v>18710</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007794773606373958</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004500318846603546</v>
+        <v>0.003769635474958348</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01596258395657272</v>
+        <v>0.01472110400812262</v>
       </c>
     </row>
     <row r="30">
@@ -5850,19 +5850,19 @@
         <v>12366</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6701</v>
+        <v>6794</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20850</v>
+        <v>20383</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02427351708335914</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01315472945841104</v>
+        <v>0.0133372817820353</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04092736051261118</v>
+        <v>0.04001162696318433</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>29</v>
@@ -5871,19 +5871,19 @@
         <v>31784</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>21388</v>
+        <v>20944</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>45609</v>
+        <v>43712</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04173692684876841</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02808579539938992</v>
+        <v>0.02750303568738445</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05989163141388937</v>
+        <v>0.05740095260387463</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>41</v>
@@ -5892,19 +5892,19 @@
         <v>44149</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>32511</v>
+        <v>32774</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>59423</v>
+        <v>58559</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03473716606896305</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02558003408574565</v>
+        <v>0.02578741772131046</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04675517083429518</v>
+        <v>0.04607482056301277</v>
       </c>
     </row>
     <row r="31">
@@ -5921,19 +5921,19 @@
         <v>19145</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11538</v>
+        <v>11741</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29078</v>
+        <v>29433</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03758154058763152</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02264981799341504</v>
+        <v>0.02304708147328379</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05708067316612641</v>
+        <v>0.05777723519205378</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>30</v>
@@ -5942,19 +5942,19 @@
         <v>32647</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22526</v>
+        <v>22158</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>45408</v>
+        <v>44424</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04287055340213779</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02958070193360016</v>
+        <v>0.02909639132130157</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05962823108715044</v>
+        <v>0.05833624411898897</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>48</v>
@@ -5963,19 +5963,19 @@
         <v>51792</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38642</v>
+        <v>38763</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>67016</v>
+        <v>67250</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0407505880024711</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03040433610085809</v>
+        <v>0.03049957130729219</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05272917504498703</v>
+        <v>0.05291353133400002</v>
       </c>
     </row>
     <row r="32">
@@ -5992,19 +5992,19 @@
         <v>475658</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>462748</v>
+        <v>462259</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>486620</v>
+        <v>484819</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9337113272056597</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9083693354916746</v>
+        <v>0.9074094873207019</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9552307079927596</v>
+        <v>0.9516944269320072</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>626</v>
@@ -6013,19 +6013,19 @@
         <v>677866</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>656492</v>
+        <v>660578</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>694571</v>
+        <v>694426</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8901465267029296</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8620783756792171</v>
+        <v>0.867444700969584</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9120831234229039</v>
+        <v>0.9118918013644265</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1080</v>
@@ -6034,19 +6034,19 @@
         <v>1153524</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1131451</v>
+        <v>1132464</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1172147</v>
+        <v>1173136</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9076083618219264</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8902409101577508</v>
+        <v>0.8910382286868646</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9222611931736513</v>
+        <v>0.9230397391176355</v>
       </c>
     </row>
     <row r="33">
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4738</v>
+        <v>4662</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003490763689627029</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01775364205150614</v>
+        <v>0.01746888204094066</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -6159,19 +6159,19 @@
         <v>8050</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3961</v>
+        <v>3943</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15953</v>
+        <v>15993</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007262736202389655</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003573344859344564</v>
+        <v>0.003557328811358714</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01439290230777462</v>
+        <v>0.01442985369218166</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -6180,19 +6180,19 @@
         <v>8981</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4060</v>
+        <v>4807</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>16943</v>
+        <v>17024</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.006530740018007889</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002952499749371343</v>
+        <v>0.003495241812726463</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01232003740971704</v>
+        <v>0.01237861816599867</v>
       </c>
     </row>
     <row r="35">
@@ -6222,19 +6222,19 @@
         <v>6218</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2125</v>
+        <v>2094</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13460</v>
+        <v>12398</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005609995153184573</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001917019097203359</v>
+        <v>0.001889433830243821</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01214364734529372</v>
+        <v>0.01118548587096421</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -6243,19 +6243,19 @@
         <v>6218</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2131</v>
+        <v>2193</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13312</v>
+        <v>13526</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.004521308787460323</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001549360801038864</v>
+        <v>0.001594534555064464</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.009680047232413643</v>
+        <v>0.009835620207141385</v>
       </c>
     </row>
     <row r="36">
@@ -6272,19 +6272,19 @@
         <v>3130</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8037</v>
+        <v>8550</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01172948182823155</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003538335730127729</v>
+        <v>0.003508348795409616</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03011458187654084</v>
+        <v>0.03203837965968515</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>33</v>
@@ -6293,19 +6293,19 @@
         <v>34978</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>24870</v>
+        <v>25085</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>49086</v>
+        <v>49404</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03155866094197889</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02243838302651202</v>
+        <v>0.02263272759532458</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04428699343654761</v>
+        <v>0.0445739511631432</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>36</v>
@@ -6314,19 +6314,19 @@
         <v>38109</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>26582</v>
+        <v>27531</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>52062</v>
+        <v>54064</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02771057260051459</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01932869841080135</v>
+        <v>0.02001916809073533</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03785636738272716</v>
+        <v>0.03931227900407344</v>
       </c>
     </row>
     <row r="37">
@@ -6343,19 +6343,19 @@
         <v>7891</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3594</v>
+        <v>3138</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14875</v>
+        <v>14167</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02956885995326058</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0134651769685531</v>
+        <v>0.01175642668048982</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05573449835718162</v>
+        <v>0.05308371863207156</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>59</v>
@@ -6364,19 +6364,19 @@
         <v>63457</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>50351</v>
+        <v>49912</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>81753</v>
+        <v>80151</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05725279095419957</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04542865525904051</v>
+        <v>0.04503240370378693</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07376045750147785</v>
+        <v>0.07231509120042989</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>67</v>
@@ -6385,19 +6385,19 @@
         <v>71348</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>56766</v>
+        <v>54995</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>88658</v>
+        <v>89114</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05188039447124283</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04127704365309166</v>
+        <v>0.03998958174345484</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06446719581109481</v>
+        <v>0.06479865181616641</v>
       </c>
     </row>
     <row r="38">
@@ -6414,19 +6414,19 @@
         <v>254929</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>246474</v>
+        <v>246977</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>260153</v>
+        <v>260378</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9552108945288809</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9235334103406579</v>
+        <v>0.9254158647631993</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9747871351724801</v>
+        <v>0.9756306320340725</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>937</v>
@@ -6435,19 +6435,19 @@
         <v>995656</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>973005</v>
+        <v>972906</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1013940</v>
+        <v>1014000</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8983158167482473</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8778786186783982</v>
+        <v>0.8777897913899083</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9148121052488203</v>
+        <v>0.9148661516586222</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1190</v>
@@ -6456,19 +6456,19 @@
         <v>1250585</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1227707</v>
+        <v>1226933</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1271251</v>
+        <v>1269592</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9093569841227743</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8927215633645343</v>
+        <v>0.8921584168908461</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9243840864112642</v>
+        <v>0.9231777886624603</v>
       </c>
     </row>
     <row r="39">
@@ -6560,19 +6560,19 @@
         <v>20914</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>12793</v>
+        <v>12311</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>33507</v>
+        <v>33736</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.006115778411785023</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003740819421930961</v>
+        <v>0.003599959146399317</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.009798071447778755</v>
+        <v>0.009865184676542765</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>31</v>
@@ -6581,19 +6581,19 @@
         <v>32612</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>22765</v>
+        <v>22450</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>45316</v>
+        <v>46856</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.009188814719374107</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00641417356664689</v>
+        <v>0.006325452254883067</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01276832936738079</v>
+        <v>0.01320220353876173</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>49</v>
@@ -6602,19 +6602,19 @@
         <v>53527</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>39642</v>
+        <v>40616</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>70298</v>
+        <v>69696</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007680831971756933</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.005688430839234448</v>
+        <v>0.005828155670556037</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01008750775232676</v>
+        <v>0.01000102724579965</v>
       </c>
     </row>
     <row r="41">
@@ -6631,19 +6631,19 @@
         <v>12340</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6064</v>
+        <v>6677</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22280</v>
+        <v>22829</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.003608492194322223</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001773240366494946</v>
+        <v>0.001952552777002259</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.006515133177086967</v>
+        <v>0.00667572554004956</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>31</v>
@@ -6652,19 +6652,19 @@
         <v>34470</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>23899</v>
+        <v>24560</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>49693</v>
+        <v>49090</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.009712339037529197</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00673382208918951</v>
+        <v>0.006920014547112686</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01400153699603331</v>
+        <v>0.01383156552955317</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>42</v>
@@ -6673,19 +6673,19 @@
         <v>46810</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>33391</v>
+        <v>33069</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>61992</v>
+        <v>63677</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.006717094330877828</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004791411505698344</v>
+        <v>0.004745267968139957</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.008895595648447472</v>
+        <v>0.009137329624652232</v>
       </c>
     </row>
     <row r="42">
@@ -6702,19 +6702,19 @@
         <v>66538</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>52201</v>
+        <v>52447</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>85196</v>
+        <v>86850</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01945708084013679</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01526475372538676</v>
+        <v>0.01533680949719009</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0249131149979349</v>
+        <v>0.02539691403050593</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>112</v>
@@ -6723,19 +6723,19 @@
         <v>122331</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>101420</v>
+        <v>101490</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>147744</v>
+        <v>147721</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03446772749228651</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02857602174913308</v>
+        <v>0.02859566592596298</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04162808602477028</v>
+        <v>0.04162159545292739</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>175</v>
@@ -6744,19 +6744,19 @@
         <v>188868</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>160464</v>
+        <v>163374</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>217584</v>
+        <v>221060</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02710178907948007</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02302593260033576</v>
+        <v>0.0234434693049625</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03122243801191673</v>
+        <v>0.03172121011699328</v>
       </c>
     </row>
     <row r="43">
@@ -6773,19 +6773,19 @@
         <v>128112</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>106077</v>
+        <v>107075</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>154142</v>
+        <v>153458</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03746267876834217</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03101924314179405</v>
+        <v>0.03131122567019164</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.045074495834948</v>
+        <v>0.0448745265117245</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>172</v>
@@ -6794,19 +6794,19 @@
         <v>186402</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>160761</v>
+        <v>159232</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>216012</v>
+        <v>215252</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05252044509492872</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04529589273727035</v>
+        <v>0.04486503098001993</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06086335978764097</v>
+        <v>0.06064904444297815</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>289</v>
@@ -6815,19 +6815,19 @@
         <v>314514</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>279099</v>
+        <v>277903</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>348699</v>
+        <v>355298</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04513138438579646</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04004955555114435</v>
+        <v>0.0398778623784783</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05003690341894215</v>
+        <v>0.05098370920228319</v>
       </c>
     </row>
     <row r="44">
@@ -6844,19 +6844,19 @@
         <v>3191809</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3159632</v>
+        <v>3160787</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>3223040</v>
+        <v>3222533</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9333559697854138</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9239467638364052</v>
+        <v>0.9242845640376849</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9424888630303224</v>
+        <v>0.9423404806243927</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2943</v>
@@ -6865,19 +6865,19 @@
         <v>3173318</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3131499</v>
+        <v>3131424</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3211963</v>
+        <v>3208240</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8941106736558815</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8823279626588789</v>
+        <v>0.8823067100595713</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9049992327082557</v>
+        <v>0.9039504148109268</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5937</v>
@@ -6886,19 +6886,19 @@
         <v>6365126</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>6315806</v>
+        <v>6315690</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>6415807</v>
+        <v>6415958</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9133689002320887</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9062916770508737</v>
+        <v>0.90627494316738</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9206413134610388</v>
+        <v>0.9206630579208137</v>
       </c>
     </row>
     <row r="45">
@@ -7245,19 +7245,19 @@
         <v>3009</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8959</v>
+        <v>8429</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00867081476092803</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002536572064258147</v>
+        <v>0.002503754004265232</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02581466416977525</v>
+        <v>0.02428758915016113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -7266,19 +7266,19 @@
         <v>3009</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8195</v>
+        <v>9134</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003891705143245597</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00114425347279833</v>
+        <v>0.00113462267781585</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0105975290358576</v>
+        <v>0.01181260779786679</v>
       </c>
     </row>
     <row r="5">
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7260</v>
+        <v>7143</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004616235833142481</v>
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01703488750175569</v>
+        <v>0.01676009907959785</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10399</v>
+        <v>10403</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005242054543981825</v>
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02996266597551979</v>
+        <v>0.02997428037644207</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -7337,19 +7337,19 @@
         <v>3787</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10971</v>
+        <v>10660</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004897120843705449</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001201851609758671</v>
+        <v>0.001194680859942618</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01418838279555806</v>
+        <v>0.01378650720628292</v>
       </c>
     </row>
     <row r="6">
@@ -7366,19 +7366,19 @@
         <v>5987</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2035</v>
+        <v>2021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13372</v>
+        <v>14991</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01404707673381159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004773856086764884</v>
+        <v>0.00474145844301738</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03137534143760209</v>
+        <v>0.03517368935622297</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -7387,19 +7387,19 @@
         <v>5451</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1904</v>
+        <v>1847</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12216</v>
+        <v>13443</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01570626862093258</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005485750375431964</v>
+        <v>0.005321860650607612</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03520003198931651</v>
+        <v>0.03873385420039089</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -7408,19 +7408,19 @@
         <v>11438</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5438</v>
+        <v>5209</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20276</v>
+        <v>21005</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01479176864325437</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007032816185761986</v>
+        <v>0.006737115125574142</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02622133976361322</v>
+        <v>0.02716510320938837</v>
       </c>
     </row>
     <row r="7">
@@ -7437,19 +7437,19 @@
         <v>9804</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4523</v>
+        <v>4554</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18783</v>
+        <v>18644</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.023003697017119</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.010613423906109</v>
+        <v>0.01068615606919083</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04407180484410494</v>
+        <v>0.04374503672931787</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -7458,19 +7458,19 @@
         <v>9031</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3948</v>
+        <v>4085</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17578</v>
+        <v>16544</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02602122122455363</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01137683512426953</v>
+        <v>0.01177096036278357</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05064970442887053</v>
+        <v>0.04767073497164837</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -7479,19 +7479,19 @@
         <v>18835</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11031</v>
+        <v>11407</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28832</v>
+        <v>29060</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02435804661421321</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01426562339825227</v>
+        <v>0.01475144912817482</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0372863168789119</v>
+        <v>0.03758197205743852</v>
       </c>
     </row>
     <row r="8">
@@ -7508,19 +7508,19 @@
         <v>408434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>397492</v>
+        <v>398516</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416054</v>
+        <v>415598</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9583329904159269</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9326588534083931</v>
+        <v>0.9350611786621088</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9762121907281205</v>
+        <v>0.9751416221087359</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>315</v>
@@ -7529,19 +7529,19 @@
         <v>327745</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>317068</v>
+        <v>317262</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>335099</v>
+        <v>335219</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9443596408496039</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9135947251552491</v>
+        <v>0.9141535031817292</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9655502300377895</v>
+        <v>0.9658950820593293</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>692</v>
@@ -7550,19 +7550,19 @@
         <v>736179</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>722103</v>
+        <v>721437</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>747445</v>
+        <v>748470</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9520613587555814</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9338582077974293</v>
+        <v>0.9329962272737846</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9666321661630916</v>
+        <v>0.967957051359922</v>
       </c>
     </row>
     <row r="9">
@@ -7654,19 +7654,19 @@
         <v>3591</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10303</v>
+        <v>10677</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009519142095584509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002432453443515024</v>
+        <v>0.002418086420349855</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02731133166636036</v>
+        <v>0.02830343918284168</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -7675,19 +7675,19 @@
         <v>6646</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2750</v>
+        <v>2130</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15354</v>
+        <v>14941</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01790681331201326</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007409340729212671</v>
+        <v>0.005739475005755467</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04136882659587703</v>
+        <v>0.04025503332625523</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -7696,19 +7696,19 @@
         <v>10237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4513</v>
+        <v>4594</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19625</v>
+        <v>19238</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01367898580960841</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006030283292473712</v>
+        <v>0.006138280372722127</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02622356779842627</v>
+        <v>0.02570610374058859</v>
       </c>
     </row>
     <row r="11">
@@ -7725,19 +7725,19 @@
         <v>3308</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9043</v>
+        <v>8934</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008768102450784772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002818051077620324</v>
+        <v>0.002814751308253509</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02397125827605702</v>
+        <v>0.02368450252849828</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6528</v>
+        <v>5709</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005138323051288815</v>
@@ -7758,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0175870186430557</v>
+        <v>0.015382396111785</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -7767,19 +7767,19 @@
         <v>5215</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1997</v>
+        <v>1873</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12616</v>
+        <v>11663</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006967922802742297</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00266893358692125</v>
+        <v>0.002502706585496637</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01685733620360317</v>
+        <v>0.01558351442889344</v>
       </c>
     </row>
     <row r="12">
@@ -7796,19 +7796,19 @@
         <v>6290</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2161</v>
+        <v>2166</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13511</v>
+        <v>13845</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01667559218183966</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005728817917059019</v>
+        <v>0.005740584850717742</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03581559473898585</v>
+        <v>0.0367033456607833</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -7817,19 +7817,19 @@
         <v>5699</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1946</v>
+        <v>1937</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11700</v>
+        <v>12305</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01535455496540874</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005243432723125318</v>
+        <v>0.005219364147477642</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03152292242547913</v>
+        <v>0.03315371615495779</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -7838,19 +7838,19 @@
         <v>11989</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6176</v>
+        <v>6934</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19685</v>
+        <v>21584</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01602042721185392</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008252182228856524</v>
+        <v>0.009265209917697538</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02630328170679197</v>
+        <v>0.02884077106382978</v>
       </c>
     </row>
     <row r="13">
@@ -7867,19 +7867,19 @@
         <v>20157</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12630</v>
+        <v>11631</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31777</v>
+        <v>31510</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.053435169592237</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03348016180567483</v>
+        <v>0.03083371007756737</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08423877193336345</v>
+        <v>0.08353064295237196</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -7888,19 +7888,19 @@
         <v>19863</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12123</v>
+        <v>11968</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29866</v>
+        <v>30522</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05351592051406662</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0326636795133068</v>
+        <v>0.03224401278057838</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08046609019977019</v>
+        <v>0.08223472438477755</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -7909,19 +7909,19 @@
         <v>40020</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29142</v>
+        <v>29097</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54057</v>
+        <v>55678</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05347521780179446</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0389390373794542</v>
+        <v>0.03887968682597605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07223111552525585</v>
+        <v>0.07439665404711597</v>
       </c>
     </row>
     <row r="14">
@@ -7938,19 +7938,19 @@
         <v>343881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>331998</v>
+        <v>328961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>353875</v>
+        <v>353546</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9116019936795541</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8801002366000024</v>
+        <v>0.8720498825990702</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9380962142368006</v>
+        <v>0.9372237474085352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>318</v>
@@ -7959,19 +7959,19 @@
         <v>337046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>325080</v>
+        <v>324240</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>347353</v>
+        <v>347885</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9080843881572226</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8758475750691123</v>
+        <v>0.8735818357742237</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9358544025329915</v>
+        <v>0.9372896604537507</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>642</v>
@@ -7980,19 +7980,19 @@
         <v>680926</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>665313</v>
+        <v>664565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>696581</v>
+        <v>695164</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9098574463740009</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8889946921035605</v>
+        <v>0.8879949757927251</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9307751479120701</v>
+        <v>0.9288818717354953</v>
       </c>
     </row>
     <row r="15">
@@ -8084,19 +8084,19 @@
         <v>6203</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2844</v>
+        <v>2261</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13846</v>
+        <v>13622</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01188574511077219</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005448300556400022</v>
+        <v>0.004332746072849404</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02653009308486506</v>
+        <v>0.02610030982613828</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -8118,19 +8118,19 @@
         <v>6203</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2292</v>
+        <v>2373</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13904</v>
+        <v>13389</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009015994273818755</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003331192593956864</v>
+        <v>0.003448711882759381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02020764703747937</v>
+        <v>0.01945927930533581</v>
       </c>
     </row>
     <row r="17">
@@ -8147,19 +8147,19 @@
         <v>3259</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8711</v>
+        <v>8419</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006243831140803945</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001993769638668699</v>
+        <v>0.00197945837618204</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01669071241394938</v>
+        <v>0.01613144464577051</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5531</v>
+        <v>4505</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006577760022765837</v>
@@ -8180,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03329698281744439</v>
+        <v>0.02711972905129112</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -8189,19 +8189,19 @@
         <v>4351</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1158</v>
+        <v>1104</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10873</v>
+        <v>10742</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.006324456518477958</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001682692323306274</v>
+        <v>0.001604405778760832</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01580242414360589</v>
+        <v>0.01561309943370653</v>
       </c>
     </row>
     <row r="18">
@@ -8218,19 +8218,19 @@
         <v>14853</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8103</v>
+        <v>8596</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24413</v>
+        <v>24685</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02845826334034901</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01552519830495426</v>
+        <v>0.01647001976052286</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04677624973681212</v>
+        <v>0.04729731984679524</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -8239,19 +8239,19 @@
         <v>2846</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>879</v>
+        <v>394</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7826</v>
+        <v>7685</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01713261729552003</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.005293707865750612</v>
+        <v>0.002374552802465535</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04710850169010113</v>
+        <v>0.0462606426147851</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>17</v>
@@ -8260,19 +8260,19 @@
         <v>17699</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11261</v>
+        <v>10699</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29072</v>
+        <v>27346</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02572374548612297</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01636696600547163</v>
+        <v>0.01555061714048038</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0422540901308803</v>
+        <v>0.03974473679623711</v>
       </c>
     </row>
     <row r="19">
@@ -8289,19 +8289,19 @@
         <v>27958</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18237</v>
+        <v>18664</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40162</v>
+        <v>41043</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05356886982012935</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03494228572959408</v>
+        <v>0.03576121141536927</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07695225626243771</v>
+        <v>0.0786402513370678</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -8310,19 +8310,19 @@
         <v>6662</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2845</v>
+        <v>2944</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13547</v>
+        <v>13969</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0401053629425287</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01712824552584686</v>
+        <v>0.01771926596893433</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0815497748281076</v>
+        <v>0.08409111291973742</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -8331,19 +8331,19 @@
         <v>34621</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24006</v>
+        <v>23858</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47709</v>
+        <v>47685</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0503181766771891</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03489021009724445</v>
+        <v>0.03467482964875742</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06934055642797347</v>
+        <v>0.06930634843211651</v>
       </c>
     </row>
     <row r="20">
@@ -8360,19 +8360,19 @@
         <v>469641</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>454992</v>
+        <v>453205</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>482600</v>
+        <v>482970</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8998432905879455</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8717757258815986</v>
+        <v>0.8683520597043347</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9246732626561206</v>
+        <v>0.9253819936151805</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>143</v>
@@ -8381,19 +8381,19 @@
         <v>155522</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>146947</v>
+        <v>148313</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>160356</v>
+        <v>160971</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9361842597391854</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8845666915877607</v>
+        <v>0.8927887400387456</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9652859688104983</v>
+        <v>0.9689868158893638</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>597</v>
@@ -8402,19 +8402,19 @@
         <v>625162</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>608191</v>
+        <v>609363</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>638873</v>
+        <v>638939</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9086176270443912</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8839518000172462</v>
+        <v>0.8856554903635744</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9285457692736516</v>
+        <v>0.9286422386759813</v>
       </c>
     </row>
     <row r="21">
@@ -8506,19 +8506,19 @@
         <v>8786</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3858</v>
+        <v>3885</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18392</v>
+        <v>18948</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007656770080034178</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003361753255755763</v>
+        <v>0.003385909529147569</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01602756963411169</v>
+        <v>0.01651246910806476</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -8527,19 +8527,19 @@
         <v>6051</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2896</v>
+        <v>2145</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12965</v>
+        <v>13144</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007326356154560431</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003506451741093842</v>
+        <v>0.002597623376218413</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01569898506666912</v>
+        <v>0.01591462567444635</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -8548,19 +8548,19 @@
         <v>14837</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7936</v>
+        <v>8396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24744</v>
+        <v>25696</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007518489403263113</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004021278865384178</v>
+        <v>0.004254440384698139</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01253886823319631</v>
+        <v>0.01302147388607225</v>
       </c>
     </row>
     <row r="23">
@@ -8577,19 +8577,19 @@
         <v>6036</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2088</v>
+        <v>2077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14196</v>
+        <v>13956</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005260079875129249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001819454412446049</v>
+        <v>0.001809854282146892</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0123711713314987</v>
+        <v>0.01216232307721766</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -8598,19 +8598,19 @@
         <v>7390</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2900</v>
+        <v>2958</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14874</v>
+        <v>14578</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.00894764953339818</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003511384779109499</v>
+        <v>0.003582231535876472</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01800991881379744</v>
+        <v>0.01765163847609892</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -8619,19 +8619,19 @@
         <v>13426</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7114</v>
+        <v>7592</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23550</v>
+        <v>23282</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006803355108625393</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003605106829387409</v>
+        <v>0.003847382207144697</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01193362025177941</v>
+        <v>0.01179817697171687</v>
       </c>
     </row>
     <row r="24">
@@ -8648,19 +8648,19 @@
         <v>27906</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18115</v>
+        <v>18740</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41924</v>
+        <v>41672</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02431836849030212</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01578628457903396</v>
+        <v>0.01633118245926542</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03653524552945808</v>
+        <v>0.03631552862939709</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>25</v>
@@ -8669,19 +8669,19 @@
         <v>25762</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17218</v>
+        <v>16674</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>38164</v>
+        <v>36939</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03119302604542227</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02084871236162945</v>
+        <v>0.02018921343209192</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04621084385976989</v>
+        <v>0.04472672321447006</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>50</v>
@@ -8690,19 +8690,19 @@
         <v>53667</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>39740</v>
+        <v>40628</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>72320</v>
+        <v>70751</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02719546363067284</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02013794706153303</v>
+        <v>0.02058821786141245</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03664747030913976</v>
+        <v>0.0358524572715558</v>
       </c>
     </row>
     <row r="25">
@@ -8719,19 +8719,19 @@
         <v>67066</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51996</v>
+        <v>50257</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84672</v>
+        <v>82660</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05844531590635145</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04531174401877382</v>
+        <v>0.04379643981668233</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0737876639658558</v>
+        <v>0.0720339234372768</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -8740,19 +8740,19 @@
         <v>37246</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25116</v>
+        <v>26428</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50673</v>
+        <v>51738</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04509898693903591</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03041177091045874</v>
+        <v>0.032000365680666</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06135632315354204</v>
+        <v>0.06264677665613456</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>97</v>
@@ -8761,19 +8761,19 @@
         <v>104313</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>86637</v>
+        <v>85759</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>125143</v>
+        <v>127705</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05285977831327471</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04390277150688567</v>
+        <v>0.04345787377179188</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06341536440397223</v>
+        <v>0.06471350960799248</v>
       </c>
     </row>
     <row r="26">
@@ -8790,19 +8790,19 @@
         <v>1037714</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1015205</v>
+        <v>1018166</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1057369</v>
+        <v>1058982</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.904319465648183</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8847037955403905</v>
+        <v>0.8872846625608611</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9214483305898452</v>
+        <v>0.9228533090870226</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>726</v>
@@ -8811,19 +8811,19 @@
         <v>749428</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>729878</v>
+        <v>730517</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>766477</v>
+        <v>764717</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9074339813275832</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8837617166336762</v>
+        <v>0.8845362653214619</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9280777509726124</v>
+        <v>0.9259462437875676</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1727</v>
@@ -8832,19 +8832,19 @@
         <v>1787142</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1755692</v>
+        <v>1759066</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1812024</v>
+        <v>1813247</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9056229135441639</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8896858034985725</v>
+        <v>0.8913958818924322</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9182317599116664</v>
+        <v>0.9188516060230502</v>
       </c>
     </row>
     <row r="27">
@@ -8936,19 +8936,19 @@
         <v>3451</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9625</v>
+        <v>10203</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.00556010214220448</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001513207218256436</v>
+        <v>0.001505587985607605</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01550689707578868</v>
+        <v>0.0164384957285015</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -8957,19 +8957,19 @@
         <v>6667</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2716</v>
+        <v>2900</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14467</v>
+        <v>15261</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009030728574297077</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003679268033031313</v>
+        <v>0.003928082937171045</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01959631668120996</v>
+        <v>0.02067268215786276</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -8978,19 +8978,19 @@
         <v>10118</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4367</v>
+        <v>4764</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>18900</v>
+        <v>19834</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007445505998102408</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00321376370752493</v>
+        <v>0.003505724399835329</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01390764761408202</v>
+        <v>0.01459538687766221</v>
       </c>
     </row>
     <row r="29">
@@ -9007,19 +9007,19 @@
         <v>3243</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9202</v>
+        <v>8915</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005224433493300907</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001491466518858573</v>
+        <v>0.001500399346352933</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01482577616121244</v>
+        <v>0.01436278654919847</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -9028,19 +9028,19 @@
         <v>3913</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9481</v>
+        <v>9096</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.005300638362933817</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001428352701671643</v>
+        <v>0.001414480332026745</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01284303785335769</v>
+        <v>0.01232177808936867</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -9049,19 +9049,19 @@
         <v>7156</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3096</v>
+        <v>2865</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14672</v>
+        <v>14529</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.005265831482354271</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002278382334743894</v>
+        <v>0.002108554053731278</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01079670189241044</v>
+        <v>0.01069115441308348</v>
       </c>
     </row>
     <row r="30">
@@ -9078,19 +9078,19 @@
         <v>10619</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5336</v>
+        <v>5602</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19303</v>
+        <v>19257</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01710806944057805</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008597067449136212</v>
+        <v>0.009024747737302826</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03109849357202799</v>
+        <v>0.0310250699181497</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -9099,19 +9099,19 @@
         <v>18267</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10713</v>
+        <v>11462</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29582</v>
+        <v>28786</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02474343639589848</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0145117986448262</v>
+        <v>0.01552572801409821</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04007132398919917</v>
+        <v>0.03899252928247053</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>26</v>
@@ -9120,19 +9120,19 @@
         <v>28886</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19030</v>
+        <v>19272</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42096</v>
+        <v>41937</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02125595184176086</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01400352921509612</v>
+        <v>0.01418168583815218</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03097700857320284</v>
+        <v>0.03085997323030165</v>
       </c>
     </row>
     <row r="31">
@@ -9149,19 +9149,19 @@
         <v>34930</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24237</v>
+        <v>24757</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>49055</v>
+        <v>49426</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05627426694771859</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03904709464001327</v>
+        <v>0.0398847414385455</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07903144022586087</v>
+        <v>0.07962845096741729</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>26</v>
@@ -9170,19 +9170,19 @@
         <v>28477</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>19289</v>
+        <v>19025</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>40761</v>
+        <v>40520</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03857337806514324</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02612770997670657</v>
+        <v>0.02577018150311023</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05521326452169115</v>
+        <v>0.05488668159916232</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>59</v>
@@ -9191,19 +9191,19 @@
         <v>63406</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>48563</v>
+        <v>48989</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>80923</v>
+        <v>82004</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04665833022706552</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03573549646328147</v>
+        <v>0.03604895221774796</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0595478671907795</v>
+        <v>0.06034350453042837</v>
       </c>
     </row>
     <row r="32">
@@ -9220,19 +9220,19 @@
         <v>568463</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>552997</v>
+        <v>552444</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>581372</v>
+        <v>580216</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.915833127976198</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8909168669600287</v>
+        <v>0.8900260152190076</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9366296564400178</v>
+        <v>0.9347670918782688</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>647</v>
@@ -9241,19 +9241,19 @@
         <v>680921</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>663634</v>
+        <v>664693</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>693801</v>
+        <v>694442</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9223518186017274</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8989360921928162</v>
+        <v>0.9003702675299617</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9397993652940722</v>
+        <v>0.9406668094008771</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1195</v>
@@ -9262,19 +9262,19 @@
         <v>1249384</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1227075</v>
+        <v>1228331</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1268498</v>
+        <v>1270023</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.919374380450717</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9029582639911237</v>
+        <v>0.9038827406369204</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9334396678436683</v>
+        <v>0.9345620732966721</v>
       </c>
     </row>
     <row r="33">
@@ -9379,19 +9379,19 @@
         <v>10829</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5338</v>
+        <v>5327</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>19335</v>
+        <v>19621</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01002675695261085</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004942504048530099</v>
+        <v>0.00493216254026242</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01790245421075373</v>
+        <v>0.01816720634397545</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>10</v>
@@ -9400,19 +9400,19 @@
         <v>10829</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5318</v>
+        <v>4572</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>18201</v>
+        <v>17996</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007926986036846054</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003892831523702225</v>
+        <v>0.003346993985727074</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.013322979609523</v>
+        <v>0.01317285993667111</v>
       </c>
     </row>
     <row r="35">
@@ -9429,19 +9429,19 @@
         <v>3983</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>995</v>
+        <v>964</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9806</v>
+        <v>9277</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01392282031068841</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003478633677812251</v>
+        <v>0.003370686800468537</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0342749114646391</v>
+        <v>0.03242806008498879</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -9450,19 +9450,19 @@
         <v>12644</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6784</v>
+        <v>6749</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>21472</v>
+        <v>22181</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01170710224404639</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.00628099436556977</v>
+        <v>0.006248528560756539</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01988112853389738</v>
+        <v>0.02053754430821986</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>16</v>
@@ -9471,19 +9471,19 @@
         <v>16627</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>8982</v>
+        <v>9834</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>26210</v>
+        <v>26939</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01217111073411536</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006575181189022282</v>
+        <v>0.007198486762900286</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01918550710092534</v>
+        <v>0.01971933927011525</v>
       </c>
     </row>
     <row r="36">
@@ -9500,19 +9500,19 @@
         <v>4126</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9516</v>
+        <v>10236</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01442173270133442</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003714780234035733</v>
+        <v>0.003692518983114744</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03326353009424687</v>
+        <v>0.03578047209490821</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>21</v>
@@ -9521,19 +9521,19 @@
         <v>22320</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14514</v>
+        <v>14168</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>33906</v>
+        <v>32497</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02066593605777301</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01343895627597784</v>
+        <v>0.01311802860562614</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03139404787636883</v>
+        <v>0.0300891774068302</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>25</v>
@@ -9542,19 +9542,19 @@
         <v>26446</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>18253</v>
+        <v>18126</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>38631</v>
+        <v>38931</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01935829524609894</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01336139819475959</v>
+        <v>0.01326851010453022</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02827809281053553</v>
+        <v>0.02849754850015108</v>
       </c>
     </row>
     <row r="37">
@@ -9571,19 +9571,19 @@
         <v>16249</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9058</v>
+        <v>9719</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>25919</v>
+        <v>25766</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05679734601341375</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03166046054977048</v>
+        <v>0.03397346803045294</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0905995209478296</v>
+        <v>0.09006388262972791</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>39</v>
@@ -9592,19 +9592,19 @@
         <v>40034</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>28974</v>
+        <v>28727</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>56023</v>
+        <v>54363</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03706724365417755</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02682691600054648</v>
+        <v>0.02659867237985866</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0518717176850455</v>
+        <v>0.05033494405744131</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>54</v>
@@ -9613,19 +9613,19 @@
         <v>56282</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>41828</v>
+        <v>42527</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>72448</v>
+        <v>71332</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04119905768884397</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03061794915138459</v>
+        <v>0.03113029090180359</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05303227113086413</v>
+        <v>0.05221543726205179</v>
       </c>
     </row>
     <row r="38">
@@ -9642,19 +9642,19 @@
         <v>261729</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>250632</v>
+        <v>249672</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>270420</v>
+        <v>270151</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9148581009745634</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8760683271437707</v>
+        <v>0.872712925938166</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9452373126057714</v>
+        <v>0.9442969716631342</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>908</v>
@@ -9663,19 +9663,19 @@
         <v>994198</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>973187</v>
+        <v>976910</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1010568</v>
+        <v>1012040</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9205329610913922</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9010794977090693</v>
+        <v>0.9045262205800787</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9356901058546692</v>
+        <v>0.9370527894383535</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1156</v>
@@ -9684,19 +9684,19 @@
         <v>1255927</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1235508</v>
+        <v>1235178</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1279130</v>
+        <v>1274795</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9193445502940957</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9043982374123098</v>
+        <v>0.9041560403185175</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9363297796784266</v>
+        <v>0.9331559694382462</v>
       </c>
     </row>
     <row r="39">
@@ -9788,19 +9788,19 @@
         <v>22032</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>12745</v>
+        <v>13598</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>33000</v>
+        <v>33819</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.006518933249592659</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003771185855252258</v>
+        <v>0.004023508853498891</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.009764285839307949</v>
+        <v>0.01000677211861441</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>31</v>
@@ -9809,19 +9809,19 @@
         <v>33202</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>23174</v>
+        <v>23388</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>46816</v>
+        <v>47453</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.009409779118546437</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00656765669760437</v>
+        <v>0.006628321811386837</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01326793713489166</v>
+        <v>0.01344854237340416</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>50</v>
@@ -9830,19 +9830,19 @@
         <v>55234</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>41357</v>
+        <v>40091</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>73119</v>
+        <v>71666</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007995500907406347</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.005986712909659978</v>
+        <v>0.00580343405696711</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01058444970923268</v>
+        <v>0.01037412983285685</v>
       </c>
     </row>
     <row r="41">
@@ -9859,19 +9859,19 @@
         <v>21796</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>13764</v>
+        <v>14088</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>33142</v>
+        <v>34395</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.006449120217163136</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004072776649968614</v>
+        <v>0.004168645971298681</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.009806327465341597</v>
+        <v>0.01017706438434814</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>27</v>
@@ -9880,19 +9880,19 @@
         <v>28766</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>19556</v>
+        <v>18430</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>41908</v>
+        <v>41165</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.008152486345723858</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005542375028458609</v>
+        <v>0.005223093159724906</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01187701884009909</v>
+        <v>0.01166653896708257</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>47</v>
@@ -9901,19 +9901,19 @@
         <v>50562</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>37709</v>
+        <v>36057</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>66255</v>
+        <v>66327</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00731915461154554</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005458671770014779</v>
+        <v>0.005219540381336502</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.009590853645991725</v>
+        <v>0.009601249417539648</v>
       </c>
     </row>
     <row r="42">
@@ -9930,19 +9930,19 @@
         <v>69780</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>55161</v>
+        <v>53554</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>91245</v>
+        <v>87056</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0206473468546255</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01632165743455437</v>
+        <v>0.01584620436393746</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02699841532531184</v>
+        <v>0.02575901845839622</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>76</v>
@@ -9951,19 +9951,19 @@
         <v>80344</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>63039</v>
+        <v>65631</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>98305</v>
+        <v>101188</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02277013735246547</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01786576512740711</v>
+        <v>0.0186002524399152</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02786038367212404</v>
+        <v>0.02867754939502845</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>140</v>
@@ -9972,19 +9972,19 @@
         <v>150125</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>125982</v>
+        <v>126270</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>175895</v>
+        <v>176701</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02173161213043527</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.018236751892403</v>
+        <v>0.01827843694949672</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02546212350685065</v>
+        <v>0.025578761543194</v>
       </c>
     </row>
     <row r="43">
@@ -10001,19 +10001,19 @@
         <v>176165</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>151671</v>
+        <v>148474</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>203662</v>
+        <v>203523</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05212539107931887</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04487806044932221</v>
+        <v>0.04393187912574208</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06026170008796108</v>
+        <v>0.06022030795270453</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>132</v>
@@ -10022,19 +10022,19 @@
         <v>141312</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>118466</v>
+        <v>119167</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>168465</v>
+        <v>167370</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04004907749494496</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03357422845615067</v>
+        <v>0.03377291336511085</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04774432374992495</v>
+        <v>0.04743404250528344</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>295</v>
@@ -10043,19 +10043,19 @@
         <v>317477</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>283237</v>
+        <v>282760</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>355281</v>
+        <v>354521</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04595712930659558</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04100056414240884</v>
+        <v>0.04093149642334429</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05142943149240253</v>
+        <v>0.05131952664578376</v>
       </c>
     </row>
     <row r="44">
@@ -10072,19 +10072,19 @@
         <v>3089861</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3052775</v>
+        <v>3057530</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>3122463</v>
+        <v>3123678</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9142592085992999</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9032858827882072</v>
+        <v>0.9046930230503866</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9239059694219032</v>
+        <v>0.9242655736353842</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3057</v>
@@ -10093,19 +10093,19 @@
         <v>3244858</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3209478</v>
+        <v>3212821</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3276472</v>
+        <v>3276176</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9196185196883193</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.909591443545966</v>
+        <v>0.9105388696287455</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9285779491987909</v>
+        <v>0.928494277444851</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>6009</v>
@@ -10114,19 +10114,19 @@
         <v>6334720</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>6284413</v>
+        <v>6283442</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>6378706</v>
+        <v>6381336</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9169966030440172</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9097143843846761</v>
+        <v>0.9095737932385352</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9233638909500221</v>
+        <v>0.9237446590835917</v>
       </c>
     </row>
     <row r="45">
@@ -10460,19 +10460,19 @@
         <v>8783</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4097</v>
+        <v>4529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16972</v>
+        <v>17819</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01595034363321232</v>
+        <v>0.01595034363321231</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007441174482708542</v>
+        <v>0.008224898760756398</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0308229522675659</v>
+        <v>0.03236199737144064</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -10481,19 +10481,19 @@
         <v>6641</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3262</v>
+        <v>3394</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11796</v>
+        <v>12045</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.01362231437589738</v>
+        <v>0.01362231437589737</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006691425126559312</v>
+        <v>0.00696123632355451</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02419648240587186</v>
+        <v>0.02470739597918657</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -10502,19 +10502,19 @@
         <v>15424</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9040</v>
+        <v>9532</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25124</v>
+        <v>24587</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01485708624118137</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008707769871493909</v>
+        <v>0.009181497425530873</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02420125789805359</v>
+        <v>0.02368413804186771</v>
       </c>
     </row>
     <row r="5">
@@ -10531,19 +10531,19 @@
         <v>2742</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7466</v>
+        <v>8231</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004979484627086445</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001500511158015601</v>
+        <v>0.001498406250820107</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01355939850116392</v>
+        <v>0.0149491537401177</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -10552,19 +10552,19 @@
         <v>12491</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7098</v>
+        <v>7095</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21926</v>
+        <v>21407</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.02562110235495339</v>
+        <v>0.02562110235495338</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01455998546565965</v>
+        <v>0.01455329380215303</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04497544541057134</v>
+        <v>0.04391125614824444</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -10573,19 +10573,19 @@
         <v>15232</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9149</v>
+        <v>8882</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26105</v>
+        <v>24745</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01467292000534067</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008813174171027165</v>
+        <v>0.008555468234622202</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02514584310751705</v>
+        <v>0.02383609072858574</v>
       </c>
     </row>
     <row r="6">
@@ -10602,19 +10602,19 @@
         <v>27020</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17898</v>
+        <v>17522</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39060</v>
+        <v>39113</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0490729424466566</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03250471296420005</v>
+        <v>0.03182209496513571</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07093770614194909</v>
+        <v>0.07103519643245307</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -10623,19 +10623,19 @@
         <v>29533</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22065</v>
+        <v>21582</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39763</v>
+        <v>40069</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.06057905351186673</v>
+        <v>0.06057905351186672</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04525963131301348</v>
+        <v>0.0442697114835982</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08156283180983133</v>
+        <v>0.08219093401407004</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -10644,19 +10644,19 @@
         <v>56554</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43119</v>
+        <v>45004</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71235</v>
+        <v>71343</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05447628561171559</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04153526804340023</v>
+        <v>0.04335117513329004</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06861858214141853</v>
+        <v>0.06872277236096581</v>
       </c>
     </row>
     <row r="7">
@@ -10673,19 +10673,19 @@
         <v>63452</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49775</v>
+        <v>50079</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80194</v>
+        <v>79593</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1152386394583988</v>
+        <v>0.1152386394583989</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09039757824385936</v>
+        <v>0.09095106186371164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1456428902114843</v>
+        <v>0.1445522353035447</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -10694,19 +10694,19 @@
         <v>63753</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52185</v>
+        <v>51457</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78265</v>
+        <v>77054</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1307716303990111</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1070438257339449</v>
+        <v>0.1055492180578474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1605391442596364</v>
+        <v>0.1580548296711886</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>153</v>
@@ -10715,19 +10715,19 @@
         <v>127205</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109487</v>
+        <v>106659</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149889</v>
+        <v>147111</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.122533031104387</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1054653967503542</v>
+        <v>0.102740999912658</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1443838414733421</v>
+        <v>0.1417075227867448</v>
       </c>
     </row>
     <row r="8">
@@ -10744,19 +10744,19 @@
         <v>448621</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>427229</v>
+        <v>429633</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>465721</v>
+        <v>466313</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8147585898346459</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7759085925818</v>
+        <v>0.7802738217381345</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8458149536376348</v>
+        <v>0.8468894754021509</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>528</v>
@@ -10765,19 +10765,19 @@
         <v>375095</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>358239</v>
+        <v>358783</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>391101</v>
+        <v>390909</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7694058993582715</v>
+        <v>0.7694058993582713</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7348291306246311</v>
+        <v>0.735945294560584</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8022361996944762</v>
+        <v>0.8018432558347106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>979</v>
@@ -10786,19 +10786,19 @@
         <v>823716</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>798049</v>
+        <v>797390</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>848624</v>
+        <v>846494</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7934606770373754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7687362645423563</v>
+        <v>0.7681015769487692</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8174537477090978</v>
+        <v>0.8154020145669947</v>
       </c>
     </row>
     <row r="9">
@@ -10893,16 +10893,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8858</v>
+        <v>10411</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.005549872563992519</v>
+        <v>0.005549872563992518</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0183323940213859</v>
+        <v>0.02154468411506136</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -10911,19 +10911,19 @@
         <v>6765</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3348</v>
+        <v>3639</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11882</v>
+        <v>12078</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01598810827536552</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007911107012079165</v>
+        <v>0.008600823595392224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0280795084368126</v>
+        <v>0.028542684443017</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -10932,19 +10932,19 @@
         <v>9447</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5030</v>
+        <v>4928</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17329</v>
+        <v>17134</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01042308984180169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005549737379374137</v>
+        <v>0.005436940057621819</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01911945222035687</v>
+        <v>0.01890478774140429</v>
       </c>
     </row>
     <row r="11">
@@ -10961,19 +10961,19 @@
         <v>3955</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11480</v>
+        <v>11147</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.008185766931824203</v>
+        <v>0.008185766931824202</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001868309006982617</v>
+        <v>0.001878034177281903</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02375754791033046</v>
+        <v>0.02306792066595743</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -10982,19 +10982,19 @@
         <v>3177</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1215</v>
+        <v>1198</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7013</v>
+        <v>6872</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007508539285085832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002871186970105991</v>
+        <v>0.002830566722616019</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01657444991332865</v>
+        <v>0.01624010143072462</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -11003,19 +11003,19 @@
         <v>7133</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3238</v>
+        <v>2962</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14508</v>
+        <v>15250</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007869594969401506</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00357263921433327</v>
+        <v>0.003268133524069456</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01600678873041048</v>
+        <v>0.01682605114552349</v>
       </c>
     </row>
     <row r="12">
@@ -11032,19 +11032,19 @@
         <v>18770</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11752</v>
+        <v>11561</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28994</v>
+        <v>27820</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03884470560605761</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0243205863453756</v>
+        <v>0.023925124184937</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06000209940610509</v>
+        <v>0.0575735245150349</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -11053,19 +11053,19 @@
         <v>27033</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19512</v>
+        <v>18982</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37608</v>
+        <v>36978</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.06388630611555339</v>
+        <v>0.0638863061155534</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04611273869412282</v>
+        <v>0.04485936888599453</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08887787466765933</v>
+        <v>0.08738858048441266</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -11074,19 +11074,19 @@
         <v>45803</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35054</v>
+        <v>34441</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>61113</v>
+        <v>58087</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05053568132659134</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03867600662603252</v>
+        <v>0.03799960905676505</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06742774127486682</v>
+        <v>0.06408810372458019</v>
       </c>
     </row>
     <row r="13">
@@ -11103,19 +11103,19 @@
         <v>53316</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40319</v>
+        <v>40033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71459</v>
+        <v>70783</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1103363514403607</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08343865800187236</v>
+        <v>0.08284812678181622</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1478836486341877</v>
+        <v>0.1464833914962251</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -11124,19 +11124,19 @@
         <v>44281</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34975</v>
+        <v>35417</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54943</v>
+        <v>56210</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1046469536207052</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08265633358903361</v>
+        <v>0.08370002884126208</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1298442872107761</v>
+        <v>0.1328400268896269</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -11145,19 +11145,19 @@
         <v>97596</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82545</v>
+        <v>80631</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116905</v>
+        <v>117698</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1076801868813571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09107315074333831</v>
+        <v>0.088961310728616</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.128983882780575</v>
+        <v>0.1298581235199475</v>
       </c>
     </row>
     <row r="14">
@@ -11174,19 +11174,19 @@
         <v>404489</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>385482</v>
+        <v>385035</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>421778</v>
+        <v>419366</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8370833034577649</v>
+        <v>0.8370833034577648</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7977490889810764</v>
+        <v>0.7968239799047417</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8728623979056759</v>
+        <v>0.8678720295003534</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>474</v>
@@ -11195,19 +11195,19 @@
         <v>341887</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>326583</v>
+        <v>328717</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>354462</v>
+        <v>354358</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8079700927032899</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7718027715925182</v>
+        <v>0.7768458148477001</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8376894015732891</v>
+        <v>0.8374438235913183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>880</v>
@@ -11216,19 +11216,19 @@
         <v>746376</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>721975</v>
+        <v>721445</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>765964</v>
+        <v>767346</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8234914469808484</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7965696415399546</v>
+        <v>0.7959852002120358</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8451034373730055</v>
+        <v>0.8466283082729941</v>
       </c>
     </row>
     <row r="15">
@@ -11320,19 +11320,19 @@
         <v>5482</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1520</v>
+        <v>1652</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13809</v>
+        <v>16380</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01162305896785277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003223603809527329</v>
+        <v>0.003502391075501226</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02928107868267136</v>
+        <v>0.03473158934863724</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -11341,19 +11341,19 @@
         <v>2139</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5718</v>
+        <v>6972</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01140734936956668</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00355083336915443</v>
+        <v>0.003544679075538919</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03049726305713194</v>
+        <v>0.03718525717375758</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -11362,19 +11362,19 @@
         <v>7620</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3302</v>
+        <v>3250</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17182</v>
+        <v>16145</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01156169587917229</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005009087393981283</v>
+        <v>0.004931203727374883</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02606783212127392</v>
+        <v>0.02449460159797765</v>
       </c>
     </row>
     <row r="17">
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6784</v>
+        <v>6720</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002829867368585209</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0143848558898718</v>
+        <v>0.014249073750224</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -11415,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3160</v>
+        <v>3190</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004237266152940367</v>
@@ -11424,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01685493599396832</v>
+        <v>0.0170161631541451</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -11433,19 +11433,19 @@
         <v>2129</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7396</v>
+        <v>9583</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00323023127032798</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0007784258652539281</v>
+        <v>0.0007772735955061608</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01122068518607587</v>
+        <v>0.01453865157438657</v>
       </c>
     </row>
     <row r="18">
@@ -11462,19 +11462,19 @@
         <v>21906</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14307</v>
+        <v>14445</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34340</v>
+        <v>33656</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04644874583462039</v>
+        <v>0.04644874583462038</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03033609589244943</v>
+        <v>0.0306297341544424</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07281350667273376</v>
+        <v>0.07136380507829783</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -11483,19 +11483,19 @@
         <v>8792</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4692</v>
+        <v>5161</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14565</v>
+        <v>15245</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04689264239314567</v>
+        <v>0.04689264239314566</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02502228184064547</v>
+        <v>0.02752436526341526</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07767865425637693</v>
+        <v>0.08131039146532056</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -11504,19 +11504,19 @@
         <v>30698</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20902</v>
+        <v>20805</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>44088</v>
+        <v>43490</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04657502145750492</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03171270511131673</v>
+        <v>0.03156558796974877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06689044878060862</v>
+        <v>0.06598291617066671</v>
       </c>
     </row>
     <row r="19">
@@ -11533,19 +11533,19 @@
         <v>59485</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44684</v>
+        <v>46117</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75178</v>
+        <v>76833</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1261307624713853</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09474822686835012</v>
+        <v>0.09778531164619116</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1594063576507854</v>
+        <v>0.162915678565725</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -11554,19 +11554,19 @@
         <v>15404</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10455</v>
+        <v>10567</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21870</v>
+        <v>22592</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08215745222854834</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05575860962851301</v>
+        <v>0.05635711757278875</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1166401794009165</v>
+        <v>0.1204941413721376</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -11575,19 +11575,19 @@
         <v>74889</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60110</v>
+        <v>61418</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94222</v>
+        <v>93312</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1136216383645075</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09119871623654802</v>
+        <v>0.09318335609949199</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1429530439782004</v>
+        <v>0.1415728706568675</v>
       </c>
     </row>
     <row r="20">
@@ -11604,19 +11604,19 @@
         <v>383405</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>364315</v>
+        <v>362115</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>399629</v>
+        <v>399588</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8129675653575564</v>
+        <v>0.8129675653575563</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7724883043049641</v>
+        <v>0.7678233219722094</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8473679903939346</v>
+        <v>0.8472821391685178</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>243</v>
@@ -11625,19 +11625,19 @@
         <v>160367</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>151894</v>
+        <v>151945</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>167294</v>
+        <v>167119</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.855305289855799</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8101125942381531</v>
+        <v>0.8103860468443713</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8922468784336612</v>
+        <v>0.8913130395049024</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>646</v>
@@ -11646,19 +11646,19 @@
         <v>543772</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>521850</v>
+        <v>523712</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>563464</v>
+        <v>563279</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8250114130284871</v>
+        <v>0.8250114130284874</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7917509740641544</v>
+        <v>0.7945757287991078</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8548874771323255</v>
+        <v>0.8546063949521232</v>
       </c>
     </row>
     <row r="21">
@@ -11750,19 +11750,19 @@
         <v>13138</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5813</v>
+        <v>6931</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25610</v>
+        <v>25693</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01160786499437836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005136145682476329</v>
+        <v>0.006123964689914472</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02262658947501922</v>
+        <v>0.02270035226011835</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -11771,19 +11771,19 @@
         <v>12183</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7474</v>
+        <v>6518</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20443</v>
+        <v>19557</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01415826893663768</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008686142087891308</v>
+        <v>0.007575249467660148</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02375850161690362</v>
+        <v>0.02272829956720105</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -11792,19 +11792,19 @@
         <v>25321</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15783</v>
+        <v>16720</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38249</v>
+        <v>39588</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01270937201337085</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007922142890920848</v>
+        <v>0.008392225380353464</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01919843073358743</v>
+        <v>0.01987024831373687</v>
       </c>
     </row>
     <row r="23">
@@ -11821,19 +11821,19 @@
         <v>9711</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4995</v>
+        <v>5301</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17763</v>
+        <v>17899</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008580007642833473</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004413374336624806</v>
+        <v>0.0046839461132877</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01569388803835838</v>
+        <v>0.01581441195904142</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -11842,19 +11842,19 @@
         <v>11022</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5867</v>
+        <v>6333</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19666</v>
+        <v>19963</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.012808970165847</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006818078874411404</v>
+        <v>0.007360263611172934</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02285530073104218</v>
+        <v>0.02320021199255205</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -11863,19 +11863,19 @@
         <v>20733</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>13247</v>
+        <v>13380</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31384</v>
+        <v>30659</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01040647592300286</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006649284463154319</v>
+        <v>0.006715697225278838</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01575235831988359</v>
+        <v>0.01538884178839732</v>
       </c>
     </row>
     <row r="24">
@@ -11892,19 +11892,19 @@
         <v>37731</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27633</v>
+        <v>26159</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52007</v>
+        <v>51207</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03333596607629079</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02441454221295036</v>
+        <v>0.02311172767041152</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04594884840157813</v>
+        <v>0.04524224193930056</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -11913,19 +11913,19 @@
         <v>34204</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25705</v>
+        <v>24577</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48782</v>
+        <v>45865</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03975023884371227</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02987306860500447</v>
+        <v>0.02856286556771227</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05669269073340972</v>
+        <v>0.05330254970476559</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>85</v>
@@ -11934,19 +11934,19 @@
         <v>71935</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>56069</v>
+        <v>55580</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>87746</v>
+        <v>88885</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03610625918867839</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02814275499703566</v>
+        <v>0.02789723035687909</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04404240018237658</v>
+        <v>0.04461386263290977</v>
       </c>
     </row>
     <row r="25">
@@ -11963,19 +11963,19 @@
         <v>127057</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106773</v>
+        <v>106840</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>152392</v>
+        <v>153976</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.112256735832366</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09433572601566913</v>
+        <v>0.09439464189187935</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1346409852182804</v>
+        <v>0.1360396444859059</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>137</v>
@@ -11984,19 +11984,19 @@
         <v>94634</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>79139</v>
+        <v>80432</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>110045</v>
+        <v>111650</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1099789668157756</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09197207884856443</v>
+        <v>0.09347442745410769</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1278893222041287</v>
+        <v>0.1297545828384434</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>263</v>
@@ -12005,19 +12005,19 @@
         <v>221691</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>195532</v>
+        <v>196436</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>250647</v>
+        <v>249698</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1112729785075576</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.098143177104988</v>
+        <v>0.09859703999691882</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1258072768367312</v>
+        <v>0.1253307659782341</v>
       </c>
     </row>
     <row r="26">
@@ -12034,19 +12034,19 @@
         <v>944205</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>914854</v>
+        <v>915188</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>969399</v>
+        <v>969766</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8342194254541313</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8082872347773632</v>
+        <v>0.8085821255203526</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8564781405079676</v>
+        <v>0.8568023058363862</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1017</v>
@@ -12055,19 +12055,19 @@
         <v>708428</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>687703</v>
+        <v>688736</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>728173</v>
+        <v>727539</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8233035552380276</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.799217855379501</v>
+        <v>0.8004182788474978</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8462502234667323</v>
+        <v>0.8455133016358302</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1949</v>
@@ -12076,19 +12076,19 @@
         <v>1652633</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1616137</v>
+        <v>1618258</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1684727</v>
+        <v>1683497</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8295049143673904</v>
+        <v>0.8295049143673905</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8111862107710536</v>
+        <v>0.8122510087856786</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8456137871742034</v>
+        <v>0.8449962204544731</v>
       </c>
     </row>
     <row r="27">
@@ -12180,19 +12180,19 @@
         <v>4462</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1859</v>
+        <v>1699</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10133</v>
+        <v>9838</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.007855897811084728</v>
+        <v>0.007855897811084726</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00327335979481926</v>
+        <v>0.002992249860856265</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01784162200614349</v>
+        <v>0.01732185368137135</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -12201,19 +12201,19 @@
         <v>8990</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4981</v>
+        <v>4974</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15081</v>
+        <v>15481</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01082079028626585</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005994702709723644</v>
+        <v>0.005986559683488685</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01815083312558645</v>
+        <v>0.01863311675646121</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>20</v>
@@ -12222,19 +12222,19 @@
         <v>13452</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8426</v>
+        <v>8475</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20760</v>
+        <v>20706</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009616947995775173</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006023816323131417</v>
+        <v>0.006058657216906951</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01484130581294086</v>
+        <v>0.01480244320777611</v>
       </c>
     </row>
     <row r="29">
@@ -12251,19 +12251,19 @@
         <v>6424</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2533</v>
+        <v>2598</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12158</v>
+        <v>12369</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01131114599630359</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004459398774021986</v>
+        <v>0.004574498598071661</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02140602609515566</v>
+        <v>0.02177819669230313</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>15</v>
@@ -12272,19 +12272,19 @@
         <v>8577</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4851</v>
+        <v>4818</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13903</v>
+        <v>14352</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01032305979728741</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005838433056022296</v>
+        <v>0.005798873123391294</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01673321967212149</v>
+        <v>0.01727438674350872</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>23</v>
@@ -12293,19 +12293,19 @@
         <v>15001</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9684</v>
+        <v>9871</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22660</v>
+        <v>23173</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01072425476910614</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006923144265527196</v>
+        <v>0.007056990087827957</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01619930755183279</v>
+        <v>0.01656639418052775</v>
       </c>
     </row>
     <row r="30">
@@ -12322,19 +12322,19 @@
         <v>23209</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13670</v>
+        <v>13953</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>36752</v>
+        <v>35355</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.04086425413350731</v>
+        <v>0.0408642541335073</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02406902664904146</v>
+        <v>0.02456701157715359</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0647080454861267</v>
+        <v>0.06224819544058064</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>45</v>
@@ -12343,19 +12343,19 @@
         <v>26179</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18944</v>
+        <v>19107</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34859</v>
+        <v>34229</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03150875967288783</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02280128349494819</v>
+        <v>0.02299653414330858</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04195555042419678</v>
+        <v>0.04119815541135508</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>65</v>
@@ -12364,19 +12364,19 @@
         <v>49388</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>37407</v>
+        <v>37034</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>65200</v>
+        <v>64150</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03530739317289593</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02674198247717075</v>
+        <v>0.02647537086665164</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04661075175354681</v>
+        <v>0.04586049367532268</v>
       </c>
     </row>
     <row r="31">
@@ -12393,19 +12393,19 @@
         <v>49003</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>36502</v>
+        <v>36664</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>63976</v>
+        <v>65192</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.08627750018706921</v>
+        <v>0.0862775001870692</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06426832382564045</v>
+        <v>0.06455346466582251</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1126406663546601</v>
+        <v>0.1147812329393539</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>144</v>
@@ -12414,19 +12414,19 @@
         <v>85437</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>71537</v>
+        <v>70243</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>99602</v>
+        <v>99715</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1028311852356339</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08610067394236993</v>
+        <v>0.08454383968777827</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1198790781179662</v>
+        <v>0.1200152089507041</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>191</v>
@@ -12435,19 +12435,19 @@
         <v>134440</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>114375</v>
+        <v>115936</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>153993</v>
+        <v>155719</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.09610985341947485</v>
+        <v>0.09610985341947484</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08176587877270164</v>
+        <v>0.0828816380755223</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1100881036247094</v>
+        <v>0.1113223980493473</v>
       </c>
     </row>
     <row r="32">
@@ -12464,19 +12464,19 @@
         <v>484866</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>466376</v>
+        <v>466202</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>501098</v>
+        <v>500909</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8536912018720353</v>
+        <v>0.853691201872035</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8211360534317195</v>
+        <v>0.8208298246553127</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8822709048548296</v>
+        <v>0.8819377140230138</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1072</v>
@@ -12485,19 +12485,19 @@
         <v>701666</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>685978</v>
+        <v>683176</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>719707</v>
+        <v>718490</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.844516205007925</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.825634206655845</v>
+        <v>0.8222618346450126</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8662296518975531</v>
+        <v>0.864764640404716</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1538</v>
@@ -12506,19 +12506,19 @@
         <v>1186532</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1159254</v>
+        <v>1162130</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1209974</v>
+        <v>1209719</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.848241550642748</v>
+        <v>0.8482415506427479</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8287403398186381</v>
+        <v>0.8307969095750544</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8649996437783215</v>
+        <v>0.8648174186388836</v>
       </c>
     </row>
     <row r="33">
@@ -12610,19 +12610,19 @@
         <v>6631</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1534</v>
+        <v>1602</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>17567</v>
+        <v>19511</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02795125060960411</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.006467185685238093</v>
+        <v>0.006751155547977534</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07404984806502021</v>
+        <v>0.08224505776616382</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -12631,19 +12631,19 @@
         <v>9758</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5618</v>
+        <v>5314</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16548</v>
+        <v>16226</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01155829718960715</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006653870861997014</v>
+        <v>0.006293711758515858</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01959973223883349</v>
+        <v>0.01921924772551808</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>17</v>
@@ -12652,19 +12652,19 @@
         <v>16389</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>9226</v>
+        <v>9262</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>27663</v>
+        <v>29369</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01515407343605542</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.008530622419460744</v>
+        <v>0.008564012885880689</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02557829161230074</v>
+        <v>0.02715584653386002</v>
       </c>
     </row>
     <row r="35">
@@ -12684,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.002138956765406623</v>
@@ -12693,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0112738311685588</v>
+        <v>0.01126452698469524</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>12</v>
@@ -12702,19 +12702,19 @@
         <v>13078</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6930</v>
+        <v>6851</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>24907</v>
+        <v>24934</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01549043232315386</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.008208422210890035</v>
+        <v>0.008114950900881978</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02950070814945664</v>
+        <v>0.02953308591999687</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -12723,19 +12723,19 @@
         <v>13586</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7058</v>
+        <v>6379</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>26058</v>
+        <v>24748</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01256180089014933</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006525635799618377</v>
+        <v>0.005898543145654748</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02409408085955783</v>
+        <v>0.02288309284264039</v>
       </c>
     </row>
     <row r="36">
@@ -12752,19 +12752,19 @@
         <v>7802</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1586</v>
+        <v>1625</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24191</v>
+        <v>24487</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03288835636650649</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.006683957999044175</v>
+        <v>0.006849116306285239</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1019723855554334</v>
+        <v>0.1032213892296113</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>45</v>
@@ -12773,19 +12773,19 @@
         <v>32950</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>24192</v>
+        <v>24082</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>43642</v>
+        <v>44400</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03902719208000612</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0286536936764068</v>
+        <v>0.02852424809670025</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05169089309505775</v>
+        <v>0.05258928427082853</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>48</v>
@@ -12794,19 +12794,19 @@
         <v>40752</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>29682</v>
+        <v>29777</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>56495</v>
+        <v>56345</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.03768064523918345</v>
+        <v>0.03768064523918344</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02744510058853526</v>
+        <v>0.0275324165306873</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05223699113670674</v>
+        <v>0.05209838518479587</v>
       </c>
     </row>
     <row r="37">
@@ -12823,19 +12823,19 @@
         <v>28146</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15489</v>
+        <v>17005</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>47196</v>
+        <v>45347</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1186472456602027</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06529191235098446</v>
+        <v>0.07168359817004119</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1989465268721671</v>
+        <v>0.1911551861607731</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>163</v>
@@ -12844,19 +12844,19 @@
         <v>114920</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>96521</v>
+        <v>96875</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>134118</v>
+        <v>135759</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1361162763329838</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1143230415477627</v>
+        <v>0.1147422024762077</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1588549890827124</v>
+        <v>0.1607984703376085</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>179</v>
@@ -12865,19 +12865,19 @@
         <v>143067</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>118765</v>
+        <v>120461</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>167249</v>
+        <v>167932</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.1322844637283656</v>
+        <v>0.1322844637283657</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1098141108346857</v>
+        <v>0.1113825765296979</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1546439618786797</v>
+        <v>0.1552755993465121</v>
       </c>
     </row>
     <row r="38">
@@ -12894,19 +12894,19 @@
         <v>194141</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>172595</v>
+        <v>170352</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>209835</v>
+        <v>208056</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.81837419059828</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7275499743796813</v>
+        <v>0.7180921189218856</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8845293250829166</v>
+        <v>0.8770312534258573</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>925</v>
@@ -12915,19 +12915,19 @@
         <v>673574</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>647931</v>
+        <v>651428</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>693599</v>
+        <v>695413</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.797807802074249</v>
+        <v>0.7978078020742492</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7674353354255408</v>
+        <v>0.7715768741736132</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.821526358352287</v>
+        <v>0.8236747553067928</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1014</v>
@@ -12936,19 +12936,19 @@
         <v>867715</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>838343</v>
+        <v>836832</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>895370</v>
+        <v>893302</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8023190167062462</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7751607056272598</v>
+        <v>0.7737632586889286</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8278894413165362</v>
+        <v>0.8259776466775797</v>
       </c>
     </row>
     <row r="39">
@@ -13040,19 +13040,19 @@
         <v>41177</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>28370</v>
+        <v>28095</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>60356</v>
+        <v>58211</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01196140170490882</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008241051975343661</v>
+        <v>0.008161283023771214</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0175325868171009</v>
+        <v>0.01690977489460895</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>67</v>
@@ -13061,19 +13061,19 @@
         <v>46477</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>36297</v>
+        <v>36268</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>59028</v>
+        <v>59509</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.01279030574448067</v>
+        <v>0.01279030574448068</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.009988912389231488</v>
+        <v>0.009980885149740144</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01624423798439412</v>
+        <v>0.016376819940685</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>102</v>
@@ -13082,19 +13082,19 @@
         <v>87654</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>69651</v>
+        <v>70216</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>107663</v>
+        <v>109900</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01238705681955777</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.009843001503696198</v>
+        <v>0.009922785433122841</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01521469558459191</v>
+        <v>0.01553087097232663</v>
       </c>
     </row>
     <row r="41">
@@ -13111,19 +13111,19 @@
         <v>24675</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>17364</v>
+        <v>16526</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>37018</v>
+        <v>35872</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.007167751895501301</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005044162347740682</v>
+        <v>0.004800594570128606</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01075337555340692</v>
+        <v>0.0104205185963791</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>63</v>
@@ -13132,19 +13132,19 @@
         <v>49139</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>35573</v>
+        <v>36775</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>64479</v>
+        <v>65649</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01352298664094872</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.009789688401684685</v>
+        <v>0.01012036622563148</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01774449919660739</v>
+        <v>0.01806637720795023</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>90</v>
@@ -13153,19 +13153,19 @@
         <v>73814</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>58902</v>
+        <v>58793</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>93277</v>
+        <v>94763</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01043126376786677</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.00832397185906485</v>
+        <v>0.008308481901279528</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01318177547090552</v>
+        <v>0.01339173981986955</v>
       </c>
     </row>
     <row r="42">
@@ -13182,19 +13182,19 @@
         <v>136439</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>113411</v>
+        <v>114632</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>162352</v>
+        <v>163102</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.03963396256624983</v>
+        <v>0.03963396256624984</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03294445757868043</v>
+        <v>0.03329938163932682</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04716145285380271</v>
+        <v>0.04737935541297639</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>226</v>
@@ -13203,19 +13203,19 @@
         <v>158691</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>137293</v>
+        <v>139778</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>179948</v>
+        <v>184248</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04367142120731151</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03778281872757841</v>
+        <v>0.03846657985133806</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04952124957691606</v>
+        <v>0.0507047144952996</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>354</v>
@@ -13224,19 +13224,19 @@
         <v>295130</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>264566</v>
+        <v>262656</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>328111</v>
+        <v>328702</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04170726036515934</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03738801597642371</v>
+        <v>0.03711804349303137</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04636802333627998</v>
+        <v>0.0464516261328952</v>
       </c>
     </row>
     <row r="43">
@@ -13253,19 +13253,19 @@
         <v>380459</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>344600</v>
+        <v>340712</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>422921</v>
+        <v>422811</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1105189849120825</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.100102461517861</v>
+        <v>0.09897303759452246</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1228537228314099</v>
+        <v>0.1228216746818125</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>627</v>
@@ -13274,19 +13274,19 @@
         <v>418429</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>386325</v>
+        <v>385021</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>455871</v>
+        <v>454829</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.1151506235357223</v>
+        <v>0.1151506235357224</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1063155671097662</v>
+        <v>0.1059566861910884</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1254545467596276</v>
+        <v>0.1251678532992652</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>990</v>
@@ -13295,19 +13295,19 @@
         <v>798888</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>749170</v>
+        <v>748243</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>857524</v>
+        <v>852321</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.112897403372169</v>
+        <v>0.1128974033721689</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1058713154173187</v>
+        <v>0.1057403743887309</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1211837363236952</v>
+        <v>0.1204484470396344</v>
       </c>
     </row>
     <row r="44">
@@ -13324,19 +13324,19 @@
         <v>2859726</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2812582</v>
+        <v>2814867</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2907186</v>
+        <v>2908151</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8307178989212577</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.81702287433446</v>
+        <v>0.8176866931744302</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8445043932131359</v>
+        <v>0.8447847876845012</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>4259</v>
@@ -13345,19 +13345,19 @@
         <v>2961018</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2915892</v>
+        <v>2917929</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2997778</v>
+        <v>3002460</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8148646628715368</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8024462628861521</v>
+        <v>0.8030066195723076</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8249809137145824</v>
+        <v>0.826269488123225</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>7006</v>
@@ -13366,19 +13366,19 @@
         <v>5820744</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5754561</v>
+        <v>5754766</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>5877149</v>
+        <v>5885656</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.822577015675247</v>
+        <v>0.8225770156752471</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8132241542358958</v>
+        <v>0.8132530774809595</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8305480224703766</v>
+        <v>0.8317502828896832</v>
       </c>
     </row>
     <row r="45">
